--- a/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.885748914192106</v>
+        <v>0.9373763136738376</v>
       </c>
       <c r="C2">
-        <v>0.2176199341560476</v>
+        <v>0.1210134643188781</v>
       </c>
       <c r="D2">
-        <v>0.002014101642725308</v>
+        <v>0.06221652456233073</v>
       </c>
       <c r="E2">
-        <v>0.02812015173612981</v>
+        <v>0.05531185234623237</v>
       </c>
       <c r="F2">
-        <v>2.939317074218962</v>
+        <v>1.113146578240546</v>
       </c>
       <c r="G2">
-        <v>0.0008572522794730864</v>
+        <v>0.0008446227863646027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08882231132896301</v>
+        <v>0.08640618957011448</v>
       </c>
       <c r="K2">
-        <v>0.4202608524485214</v>
+        <v>0.7680626568773334</v>
       </c>
       <c r="L2">
-        <v>0.1231498146258474</v>
+        <v>0.1280481608340125</v>
       </c>
       <c r="M2">
-        <v>0.3235353192312616</v>
+        <v>0.1923906767110211</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.214733139514095</v>
+        <v>3.040883712104886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.661120455809026</v>
+        <v>0.8184626849995027</v>
       </c>
       <c r="C3">
-        <v>0.1897361770144528</v>
+        <v>0.1194908279790212</v>
       </c>
       <c r="D3">
-        <v>0.001692915584582622</v>
+        <v>0.05620135089939282</v>
       </c>
       <c r="E3">
-        <v>0.028228802264886</v>
+        <v>0.05482187745795741</v>
       </c>
       <c r="F3">
-        <v>2.786179195591913</v>
+        <v>1.104550909847227</v>
       </c>
       <c r="G3">
-        <v>0.0008649618144027258</v>
+        <v>0.0008485897870263992</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0895700135054156</v>
+        <v>0.08847737183655902</v>
       </c>
       <c r="K3">
-        <v>0.3661571249561533</v>
+        <v>0.6675857393915834</v>
       </c>
       <c r="L3">
-        <v>0.1142666155432721</v>
+        <v>0.1177870507586434</v>
       </c>
       <c r="M3">
-        <v>0.2879191927530371</v>
+        <v>0.1697995377482968</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.097285006802693</v>
+        <v>3.043448001491527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.525699367904679</v>
+        <v>0.7457973813547483</v>
       </c>
       <c r="C4">
-        <v>0.1727582192966821</v>
+        <v>0.1185712592146473</v>
       </c>
       <c r="D4">
-        <v>0.001505617041045682</v>
+        <v>0.05254469887049851</v>
       </c>
       <c r="E4">
-        <v>0.02830600525120186</v>
+        <v>0.05457091392534608</v>
       </c>
       <c r="F4">
-        <v>2.696166620908514</v>
+        <v>1.100820493825964</v>
       </c>
       <c r="G4">
-        <v>0.0008698340173362841</v>
+        <v>0.0008511093043943585</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09006441743288285</v>
+        <v>0.08981825300960189</v>
       </c>
       <c r="K4">
-        <v>0.3334639410303311</v>
+        <v>0.6059998672816249</v>
       </c>
       <c r="L4">
-        <v>0.108977716209921</v>
+        <v>0.1115842817459978</v>
       </c>
       <c r="M4">
-        <v>0.266491616841666</v>
+        <v>0.1560264276939094</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.028243822552582</v>
+        <v>3.049442378751877</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.471080245252097</v>
+        <v>0.7162616227155922</v>
       </c>
       <c r="C5">
-        <v>0.1658677918675124</v>
+        <v>0.1182002285074404</v>
       </c>
       <c r="D5">
-        <v>0.001431388846864223</v>
+        <v>0.05106326374868786</v>
       </c>
       <c r="E5">
-        <v>0.02834004089864672</v>
+        <v>0.05448092774163449</v>
       </c>
       <c r="F5">
-        <v>2.660422241300395</v>
+        <v>1.099676845921088</v>
       </c>
       <c r="G5">
-        <v>0.000871855500846436</v>
+        <v>0.0008521574228194473</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09027457358597601</v>
+        <v>0.09038187965333222</v>
       </c>
       <c r="K5">
-        <v>0.3202586363492159</v>
+        <v>0.5809212407688449</v>
       </c>
       <c r="L5">
-        <v>0.1068613922528314</v>
+        <v>0.1090798610168875</v>
       </c>
       <c r="M5">
-        <v>0.2578604898992189</v>
+        <v>0.1504360637623243</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.000824273512151</v>
+        <v>3.052961173531799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.462043217868995</v>
+        <v>0.7113614921610178</v>
       </c>
       <c r="C6">
-        <v>0.1647251335530484</v>
+        <v>0.1181388383708679</v>
       </c>
       <c r="D6">
-        <v>0.001419179164955153</v>
+        <v>0.05081778144793958</v>
       </c>
       <c r="E6">
-        <v>0.02834584626870784</v>
+        <v>0.0544667201200042</v>
       </c>
       <c r="F6">
-        <v>2.654541436663791</v>
+        <v>1.099509328971685</v>
       </c>
       <c r="G6">
-        <v>0.0008721933755656546</v>
+        <v>0.0008523327638479382</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09030998873874374</v>
+        <v>0.09047650339436331</v>
       </c>
       <c r="K6">
-        <v>0.3180725806489235</v>
+        <v>0.5767577981147269</v>
       </c>
       <c r="L6">
-        <v>0.1065122567186023</v>
+        <v>0.1086653723467279</v>
       </c>
       <c r="M6">
-        <v>0.2564331045956081</v>
+        <v>0.1495090684165277</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.996312881756481</v>
+        <v>3.053609453926896</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.524960543174387</v>
+        <v>0.745398759173014</v>
       </c>
       <c r="C7">
-        <v>0.1726651879964294</v>
+        <v>0.1185662405759231</v>
       </c>
       <c r="D7">
-        <v>0.001504607975451933</v>
+        <v>0.05252468527229581</v>
       </c>
       <c r="E7">
-        <v>0.02830645392174214</v>
+        <v>0.05456965093954302</v>
       </c>
       <c r="F7">
-        <v>2.695680860754621</v>
+        <v>1.100803561824847</v>
       </c>
       <c r="G7">
-        <v>0.0008698611324673273</v>
+        <v>0.0008511233525749784</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09006721676779961</v>
+        <v>0.0898257848453845</v>
       </c>
       <c r="K7">
-        <v>0.3332853932164426</v>
+        <v>0.6056615861777459</v>
       </c>
       <c r="L7">
-        <v>0.1089490203961319</v>
+        <v>0.1115504137287431</v>
       </c>
       <c r="M7">
-        <v>0.2663748191458133</v>
+        <v>0.1559509468376241</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.027871209503985</v>
+        <v>3.049485523135814</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.807738310506068</v>
+        <v>0.8962954236402538</v>
       </c>
       <c r="C8">
-        <v>0.2079711603368679</v>
+        <v>0.120485178398603</v>
       </c>
       <c r="D8">
-        <v>0.001901049855447923</v>
+        <v>0.06013453884062869</v>
       </c>
       <c r="E8">
-        <v>0.02815539694773594</v>
+        <v>0.05513239531302538</v>
       </c>
       <c r="F8">
-        <v>2.885636217832626</v>
+        <v>1.109853882934985</v>
       </c>
       <c r="G8">
-        <v>0.0008598825196732252</v>
+        <v>0.0008459734275005291</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08907266765090149</v>
+        <v>0.08710586339832638</v>
       </c>
       <c r="K8">
-        <v>0.4014871515445861</v>
+        <v>0.7333904034105387</v>
       </c>
       <c r="L8">
-        <v>0.1200508931158666</v>
+        <v>0.1244890786079367</v>
       </c>
       <c r="M8">
-        <v>0.311157061566476</v>
+        <v>0.1845794718545513</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.17356351911161</v>
+        <v>3.040828702591824</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385243186481205</v>
+        <v>1.195534847639465</v>
       </c>
       <c r="C9">
-        <v>0.27872187520029</v>
+        <v>0.1243777633754704</v>
       </c>
       <c r="D9">
-        <v>0.002777120853920678</v>
+        <v>0.07537534589299355</v>
       </c>
       <c r="E9">
-        <v>0.0279456301250014</v>
+        <v>0.0566441865546885</v>
       </c>
       <c r="F9">
-        <v>3.293593415918338</v>
+        <v>1.140478353160759</v>
       </c>
       <c r="G9">
-        <v>0.0008413552343963823</v>
+        <v>0.0008365232614150187</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08741208801756706</v>
+        <v>0.0823296100413824</v>
       </c>
       <c r="K9">
-        <v>0.5401562296342632</v>
+        <v>0.9851555946264057</v>
       </c>
       <c r="L9">
-        <v>0.1432658364113095</v>
+        <v>0.1506986249123443</v>
       </c>
       <c r="M9">
-        <v>0.4029733710643413</v>
+        <v>0.2416114979458293</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.486468491446772</v>
+        <v>3.060607578455375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.828379704416761</v>
+        <v>1.418277777434383</v>
       </c>
       <c r="C10">
-        <v>0.3322216632404889</v>
+        <v>0.1273288795593288</v>
       </c>
       <c r="D10">
-        <v>0.003512663729127397</v>
+        <v>0.08680711209274961</v>
       </c>
       <c r="E10">
-        <v>0.02784932834417075</v>
+        <v>0.05802219709347867</v>
       </c>
       <c r="F10">
-        <v>3.620461703976446</v>
+        <v>1.171711749148756</v>
       </c>
       <c r="G10">
-        <v>0.0008282886924016815</v>
+        <v>0.0008299525408291406</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08638313154614607</v>
+        <v>0.07917296610699687</v>
       </c>
       <c r="K10">
-        <v>0.6461938328899706</v>
+        <v>1.17157771317639</v>
       </c>
       <c r="L10">
-        <v>0.1614056631100453</v>
+        <v>0.1705588772761288</v>
       </c>
       <c r="M10">
-        <v>0.473641545549782</v>
+        <v>0.2842292488586935</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.737280693918692</v>
+        <v>3.10002871856139</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.035284606248297</v>
+        <v>1.520443045922633</v>
       </c>
       <c r="C11">
-        <v>0.357041369280978</v>
+        <v>0.12869425713928</v>
       </c>
       <c r="D11">
-        <v>0.003875598316600559</v>
+        <v>0.09206825810938568</v>
       </c>
       <c r="E11">
-        <v>0.02781942009006722</v>
+        <v>0.05871147747762251</v>
       </c>
       <c r="F11">
-        <v>3.776443758937148</v>
+        <v>1.188026476487536</v>
       </c>
       <c r="G11">
-        <v>0.0008224407124432675</v>
+        <v>0.0008270387788074173</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08596012463988245</v>
+        <v>0.0778164459363957</v>
       </c>
       <c r="K11">
-        <v>0.6956273603652647</v>
+        <v>1.256860147358765</v>
       </c>
       <c r="L11">
-        <v>0.1699444532278633</v>
+        <v>0.179747363732794</v>
       </c>
       <c r="M11">
-        <v>0.5066823119049886</v>
+        <v>0.3038139791658523</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.857013950619731</v>
+        <v>3.123956292228456</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.114513447622869</v>
+        <v>1.559268919218368</v>
       </c>
       <c r="C12">
-        <v>0.3665236396104206</v>
+        <v>0.1292148542958813</v>
       </c>
       <c r="D12">
-        <v>0.004017927083085127</v>
+        <v>0.09407009318903192</v>
       </c>
       <c r="E12">
-        <v>0.02781022597593141</v>
+        <v>0.0589818481636577</v>
       </c>
       <c r="F12">
-        <v>3.836688385945337</v>
+        <v>1.194526023679373</v>
       </c>
       <c r="G12">
-        <v>0.0008202379965864593</v>
+        <v>0.000825945771571358</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.085806764771025</v>
+        <v>0.07731446528091368</v>
       </c>
       <c r="K12">
-        <v>0.7145459964540919</v>
+        <v>1.289237050459491</v>
       </c>
       <c r="L12">
-        <v>0.1732239142574699</v>
+        <v>0.1832509005426317</v>
       </c>
       <c r="M12">
-        <v>0.5193407324787742</v>
+        <v>0.311262242812731</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.903266864559455</v>
+        <v>3.133931813798455</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.097409083562127</v>
+        <v>1.550900637695179</v>
       </c>
       <c r="C13">
-        <v>0.3644775005153065</v>
+        <v>0.1291025716494048</v>
       </c>
       <c r="D13">
-        <v>0.003987042086652792</v>
+        <v>0.09363852375806658</v>
       </c>
       <c r="E13">
-        <v>0.0278121089735972</v>
+        <v>0.05892319661848511</v>
       </c>
       <c r="F13">
-        <v>3.823659032309649</v>
+        <v>1.193111620645908</v>
       </c>
       <c r="G13">
-        <v>0.0008207119011183706</v>
+        <v>0.0008261807165805674</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08583948422004894</v>
+        <v>0.07742205061332008</v>
       </c>
       <c r="K13">
-        <v>0.7104622021477525</v>
+        <v>1.282260218530865</v>
       </c>
       <c r="L13">
-        <v>0.1725154960792921</v>
+        <v>0.1824952493328595</v>
       </c>
       <c r="M13">
-        <v>0.5166076842840823</v>
+        <v>0.3096566461629493</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.893263140926265</v>
+        <v>3.131741849269702</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.041784509130821</v>
+        <v>1.523634401115544</v>
       </c>
       <c r="C14">
-        <v>0.3578197185670149</v>
+        <v>0.1287370140634536</v>
       </c>
       <c r="D14">
-        <v>0.003887204606515482</v>
+        <v>0.09223275396822572</v>
       </c>
       <c r="E14">
-        <v>0.0278186201376176</v>
+        <v>0.05873353128354708</v>
       </c>
       <c r="F14">
-        <v>3.781375725170392</v>
+        <v>1.188554643444405</v>
       </c>
       <c r="G14">
-        <v>0.0008222592697832417</v>
+        <v>0.0008269486513590097</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08594736877875064</v>
+        <v>0.07777491145428073</v>
       </c>
       <c r="K14">
-        <v>0.697179648131943</v>
+        <v>1.259522084173398</v>
       </c>
       <c r="L14">
-        <v>0.1702133052955688</v>
+        <v>0.1800351082318983</v>
       </c>
       <c r="M14">
-        <v>0.5077206785413395</v>
+        <v>0.3044260908813854</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.860800292643376</v>
+        <v>3.124758338536765</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.007830838817995</v>
+        <v>1.506951571143162</v>
       </c>
       <c r="C15">
-        <v>0.3537529716431891</v>
+        <v>0.1285135711583507</v>
       </c>
       <c r="D15">
-        <v>0.003826714842402268</v>
+        <v>0.09137294858107481</v>
       </c>
       <c r="E15">
-        <v>0.02782289026244378</v>
+        <v>0.05861858579192436</v>
       </c>
       <c r="F15">
-        <v>3.755633432708009</v>
+        <v>1.18580580768328</v>
       </c>
       <c r="G15">
-        <v>0.0008232085489356622</v>
+        <v>0.0008274203701994114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08601435063333973</v>
+        <v>0.07799258172160251</v>
       </c>
       <c r="K15">
-        <v>0.6890705062836702</v>
+        <v>1.245605456762092</v>
       </c>
       <c r="L15">
-        <v>0.1688092884927883</v>
+        <v>0.1785313927958256</v>
       </c>
       <c r="M15">
-        <v>0.5022967954467106</v>
+        <v>0.3012264945347667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.841037918067215</v>
+        <v>3.120601477907513</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.814974441476409</v>
+        <v>1.411619378883756</v>
       </c>
       <c r="C16">
-        <v>0.3306105211533747</v>
+        <v>0.1272401318789065</v>
       </c>
       <c r="D16">
-        <v>0.003489582624283116</v>
+        <v>0.08646457513163597</v>
       </c>
       <c r="E16">
-        <v>0.02785157353810463</v>
+        <v>0.05797843889552823</v>
       </c>
       <c r="F16">
-        <v>3.610425317411284</v>
+        <v>1.170689493148103</v>
       </c>
       <c r="G16">
-        <v>0.0008286726363162447</v>
+        <v>0.0008301444387304623</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08641171142894954</v>
+        <v>0.0792632401047868</v>
       </c>
       <c r="K16">
-        <v>0.6429895653973787</v>
+        <v>1.166015061570874</v>
       </c>
       <c r="L16">
-        <v>0.1608538004017674</v>
+        <v>0.1699616470284369</v>
       </c>
       <c r="M16">
-        <v>0.4715017355375082</v>
+        <v>0.2829536143974209</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.72957773624583</v>
+        <v>3.098590041801685</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.698102621727855</v>
+        <v>1.353362993576667</v>
       </c>
       <c r="C17">
-        <v>0.3165465234864371</v>
+        <v>0.1264649648524809</v>
       </c>
       <c r="D17">
-        <v>0.003290566749431179</v>
+        <v>0.08346957544392808</v>
       </c>
       <c r="E17">
-        <v>0.02787281852181955</v>
+        <v>0.05760197857845561</v>
       </c>
       <c r="F17">
-        <v>3.523299267194972</v>
+        <v>1.161968493345782</v>
       </c>
       <c r="G17">
-        <v>0.0008320479042271955</v>
+        <v>0.0008318345347558362</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08666725546325793</v>
+        <v>0.08006329033083404</v>
       </c>
       <c r="K17">
-        <v>0.6150452349415261</v>
+        <v>1.11732071292991</v>
       </c>
       <c r="L17">
-        <v>0.1560500648400165</v>
+        <v>0.1647451412079661</v>
       </c>
       <c r="M17">
-        <v>0.4528510669156631</v>
+        <v>0.2717968593069742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.662713410422199</v>
+        <v>3.086658454602571</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.631374269224295</v>
+        <v>1.31993325260197</v>
       </c>
       <c r="C18">
-        <v>0.3085017427960963</v>
+        <v>0.1260212474958067</v>
       </c>
       <c r="D18">
-        <v>0.003178709442828165</v>
+        <v>0.08175259969225124</v>
       </c>
       <c r="E18">
-        <v>0.02788633741750735</v>
+        <v>0.05739129937494525</v>
       </c>
       <c r="F18">
-        <v>3.473864093368888</v>
+        <v>1.157149492734305</v>
       </c>
       <c r="G18">
-        <v>0.0008339984434879806</v>
+        <v>0.0008328137488484481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08681845733584304</v>
+        <v>0.08053091879646246</v>
       </c>
       <c r="K18">
-        <v>0.5990832149322358</v>
+        <v>1.089357142213117</v>
       </c>
       <c r="L18">
-        <v>0.153313772948735</v>
+        <v>0.1617591138887775</v>
       </c>
       <c r="M18">
-        <v>0.4422065939425721</v>
+        <v>0.2653981722900056</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.624778720403739</v>
+        <v>3.080356612111785</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.608862655488849</v>
+        <v>1.308627362957424</v>
       </c>
       <c r="C19">
-        <v>0.3057851479444764</v>
+        <v>0.1258713719569471</v>
       </c>
       <c r="D19">
-        <v>0.003141261876944412</v>
+        <v>0.08117221093562677</v>
       </c>
       <c r="E19">
-        <v>0.02789113410437905</v>
+        <v>0.05732096071624859</v>
       </c>
       <c r="F19">
-        <v>3.457238822511357</v>
+        <v>1.155551165413456</v>
       </c>
       <c r="G19">
-        <v>0.000834660496529276</v>
+        <v>0.0008331465295226672</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08687036658080594</v>
+        <v>0.0806905229502668</v>
       </c>
       <c r="K19">
-        <v>0.593697004018864</v>
+        <v>1.079896340191056</v>
       </c>
       <c r="L19">
-        <v>0.1523917591556412</v>
+        <v>0.1607505079109259</v>
       </c>
       <c r="M19">
-        <v>0.4386162765541854</v>
+        <v>0.2632347408615736</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.612021744702574</v>
+        <v>3.078317704419931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.710491997919405</v>
+        <v>1.359556311035163</v>
       </c>
       <c r="C20">
-        <v>0.3180389610841985</v>
+        <v>0.1265472595611143</v>
       </c>
       <c r="D20">
-        <v>0.003311476496516974</v>
+        <v>0.08378780585014312</v>
       </c>
       <c r="E20">
-        <v>0.02787042157830788</v>
+        <v>0.05764144521033288</v>
       </c>
       <c r="F20">
-        <v>3.532502979634359</v>
+        <v>1.162876330061763</v>
       </c>
       <c r="G20">
-        <v>0.0008316876655755019</v>
+        <v>0.0008316538879315033</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08663961327643399</v>
+        <v>0.07997734949954172</v>
       </c>
       <c r="K20">
-        <v>0.6180083001102119</v>
+        <v>1.122499647082662</v>
       </c>
       <c r="L20">
-        <v>0.1565586356464408</v>
+        <v>0.1652989465635031</v>
       </c>
       <c r="M20">
-        <v>0.4548277579332165</v>
+        <v>0.272982587589425</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.66977630826085</v>
+        <v>3.087870172513618</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.058097985401275</v>
+        <v>1.531639261587287</v>
       </c>
       <c r="C21">
-        <v>0.3597728800924642</v>
+        <v>0.1288442883849399</v>
       </c>
       <c r="D21">
-        <v>0.003916389374044371</v>
+        <v>0.09264539660139803</v>
       </c>
       <c r="E21">
-        <v>0.0278166486493916</v>
+        <v>0.0587889835464388</v>
       </c>
       <c r="F21">
-        <v>3.793762291943864</v>
+        <v>1.189884257745149</v>
       </c>
       <c r="G21">
-        <v>0.0008218044675156475</v>
+        <v>0.0008267228125532993</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08591549235953799</v>
+        <v>0.0776709477108728</v>
       </c>
       <c r="K21">
-        <v>0.7010754168626363</v>
+        <v>1.266198478998348</v>
       </c>
       <c r="L21">
-        <v>0.1708882254008586</v>
+        <v>0.1807570424824689</v>
       </c>
       <c r="M21">
-        <v>0.510326874183491</v>
+        <v>0.3059615352962624</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.870309783146595</v>
+        <v>3.126784303413928</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.290461207923215</v>
+        <v>1.644919451279861</v>
       </c>
       <c r="C22">
-        <v>0.3875435046772964</v>
+        <v>0.1303664103801978</v>
       </c>
       <c r="D22">
-        <v>0.004340726163786002</v>
+        <v>0.09849044578108135</v>
       </c>
       <c r="E22">
-        <v>0.02779400499668672</v>
+        <v>0.05959368922580488</v>
       </c>
       <c r="F22">
-        <v>3.971445428167328</v>
+        <v>1.209419094440037</v>
       </c>
       <c r="G22">
-        <v>0.0008154128279423348</v>
+        <v>0.0008235602894531289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08548219808721136</v>
+        <v>0.07623194435146097</v>
       </c>
       <c r="K22">
-        <v>0.7565408217832186</v>
+        <v>1.360600672214588</v>
       </c>
       <c r="L22">
-        <v>0.1805242061696006</v>
+        <v>0.191001007917464</v>
       </c>
       <c r="M22">
-        <v>0.5474632024811541</v>
+        <v>0.3277032381553511</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.006744817200982</v>
+        <v>3.157575435169804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.165929402137749</v>
+        <v>1.584379068816446</v>
       </c>
       <c r="C23">
-        <v>0.372671336724693</v>
+        <v>0.1295520207234091</v>
       </c>
       <c r="D23">
-        <v>0.004111294379681496</v>
+        <v>0.09536541636641971</v>
       </c>
       <c r="E23">
-        <v>0.02780489754450599</v>
+        <v>0.05915906360696788</v>
       </c>
       <c r="F23">
-        <v>3.875931293728058</v>
+        <v>1.198814152466056</v>
       </c>
       <c r="G23">
-        <v>0.0008188187086689371</v>
+        <v>0.0008252428352353139</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08570967573818322</v>
+        <v>0.07699361516695369</v>
       </c>
       <c r="K23">
-        <v>0.7268204410924497</v>
+        <v>1.310167172431932</v>
       </c>
       <c r="L23">
-        <v>0.1753548135223397</v>
+        <v>0.1855200217308166</v>
       </c>
       <c r="M23">
-        <v>0.5275572065635785</v>
+        <v>0.3160808453807462</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.933398323890657</v>
+        <v>3.140632965739371</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.704889327794092</v>
+        <v>1.356756118442149</v>
       </c>
       <c r="C24">
-        <v>0.3173641040194184</v>
+        <v>0.1265100481115766</v>
       </c>
       <c r="D24">
-        <v>0.00330201528777252</v>
+        <v>0.08364391871485566</v>
       </c>
       <c r="E24">
-        <v>0.0278715011818762</v>
+        <v>0.05762358445565141</v>
       </c>
       <c r="F24">
-        <v>3.528339951444934</v>
+        <v>1.162465291658535</v>
       </c>
       <c r="G24">
-        <v>0.0008318504978849367</v>
+        <v>0.0008317355347659504</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08665209698394882</v>
+        <v>0.08001617948327322</v>
       </c>
       <c r="K24">
-        <v>0.6166683778336619</v>
+        <v>1.120158153976973</v>
       </c>
       <c r="L24">
-        <v>0.1563286318984538</v>
+        <v>0.1650485307782077</v>
       </c>
       <c r="M24">
-        <v>0.4539338541755171</v>
+        <v>0.2724464718791708</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.666581602063957</v>
+        <v>3.087320621404842</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.226082638026242</v>
+        <v>1.1141405041231</v>
       </c>
       <c r="C25">
-        <v>0.2593619906157869</v>
+        <v>0.1233096457246745</v>
       </c>
       <c r="D25">
-        <v>0.0025265276355384</v>
+        <v>0.0712142352828522</v>
       </c>
       <c r="E25">
-        <v>0.02799263456522283</v>
+        <v>0.05618966393798352</v>
       </c>
       <c r="F25">
-        <v>3.178896076340322</v>
+        <v>1.130727137800847</v>
       </c>
       <c r="G25">
-        <v>0.0008462646450262401</v>
+        <v>0.000839012648482368</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08782889132480065</v>
+        <v>0.08356077599532874</v>
       </c>
       <c r="K25">
-        <v>0.5020030473264967</v>
+        <v>0.9168425030069329</v>
       </c>
       <c r="L25">
-        <v>0.1368111776666723</v>
+        <v>0.1435093145241453</v>
       </c>
       <c r="M25">
-        <v>0.3776313708506365</v>
+        <v>0.2260702052001093</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.398484829155024</v>
+        <v>3.051075080943235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9373763136738376</v>
+        <v>3.639297129245051</v>
       </c>
       <c r="C2">
-        <v>0.1210134643188781</v>
+        <v>0.9954155328274226</v>
       </c>
       <c r="D2">
-        <v>0.06221652456233073</v>
+        <v>0.03898913623710598</v>
       </c>
       <c r="E2">
-        <v>0.05531185234623237</v>
+        <v>1.441922359378012</v>
       </c>
       <c r="F2">
-        <v>1.113146578240546</v>
+        <v>0.4605004832323445</v>
       </c>
       <c r="G2">
-        <v>0.0008446227863646027</v>
+        <v>0.0007686809952637855</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08640618957011448</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7680626568773334</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1280481608340125</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1923906767110211</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.040883712104886</v>
+        <v>1.208600237614888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8184626849995027</v>
+        <v>3.163926660293328</v>
       </c>
       <c r="C3">
-        <v>0.1194908279790212</v>
+        <v>0.8738301893891673</v>
       </c>
       <c r="D3">
-        <v>0.05620135089939282</v>
+        <v>0.03462429524203259</v>
       </c>
       <c r="E3">
-        <v>0.05482187745795741</v>
+        <v>1.235854890260782</v>
       </c>
       <c r="F3">
-        <v>1.104550909847227</v>
+        <v>0.4140919297068777</v>
       </c>
       <c r="G3">
-        <v>0.0008485897870263992</v>
+        <v>0.0007740569087419503</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08847737183655902</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6675857393915834</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1177870507586434</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1697995377482968</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.043448001491527</v>
+        <v>1.104349497267975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7457973813547483</v>
+        <v>2.873012578389137</v>
       </c>
       <c r="C4">
-        <v>0.1185712592146473</v>
+        <v>0.7993378641016591</v>
       </c>
       <c r="D4">
-        <v>0.05254469887049851</v>
+        <v>0.03195374705860843</v>
       </c>
       <c r="E4">
-        <v>0.05457091392534608</v>
+        <v>1.112018506115731</v>
       </c>
       <c r="F4">
-        <v>1.100820493825964</v>
+        <v>0.3874158420567042</v>
       </c>
       <c r="G4">
-        <v>0.0008511093043943585</v>
+        <v>0.0007774440430916593</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08981825300960189</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6059998672816249</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1115842817459978</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1560264276939094</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.049442378751877</v>
+        <v>1.046477410931772</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7162616227155922</v>
+        <v>2.754637414378635</v>
       </c>
       <c r="C5">
-        <v>0.1182002285074404</v>
+        <v>0.7690066449735298</v>
       </c>
       <c r="D5">
-        <v>0.05106326374868786</v>
+        <v>0.03086722398415276</v>
       </c>
       <c r="E5">
-        <v>0.05448092774163449</v>
+        <v>1.062125557461115</v>
       </c>
       <c r="F5">
-        <v>1.099676845921088</v>
+        <v>0.3769626004365563</v>
       </c>
       <c r="G5">
-        <v>0.0008521574228194473</v>
+        <v>0.0007788469445427952</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09038187965333222</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5809212407688449</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1090798610168875</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1504360637623243</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.052961173531799</v>
+        <v>1.024306193568947</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7113614921610178</v>
+        <v>2.734989976010297</v>
       </c>
       <c r="C6">
-        <v>0.1181388383708679</v>
+        <v>0.7639712490239674</v>
       </c>
       <c r="D6">
-        <v>0.05081778144793958</v>
+        <v>0.03068689589320428</v>
       </c>
       <c r="E6">
-        <v>0.0544667201200042</v>
+        <v>1.053872496020546</v>
       </c>
       <c r="F6">
-        <v>1.099509328971685</v>
+        <v>0.3752509494558538</v>
       </c>
       <c r="G6">
-        <v>0.0008523327638479382</v>
+        <v>0.000779081286801657</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09047650339436331</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5767577981147269</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1086653723467279</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1495090684165277</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.053609453926896</v>
+        <v>1.020706307984653</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.745398759173014</v>
+        <v>2.871415508127143</v>
       </c>
       <c r="C7">
-        <v>0.1185662405759231</v>
+        <v>0.7989287250678387</v>
       </c>
       <c r="D7">
-        <v>0.05252468527229581</v>
+        <v>0.03193908754566621</v>
       </c>
       <c r="E7">
-        <v>0.05456965093954302</v>
+        <v>1.111343450545846</v>
       </c>
       <c r="F7">
-        <v>1.100803561824847</v>
+        <v>0.3872732262943899</v>
       </c>
       <c r="G7">
-        <v>0.0008511233525749784</v>
+        <v>0.0007774628703471185</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0898257848453845</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6056615861777459</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1115504137287431</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1559509468376241</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.049485523135814</v>
+        <v>1.046172851185844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8962954236402538</v>
+        <v>3.475146169237348</v>
       </c>
       <c r="C8">
-        <v>0.120485178398603</v>
+        <v>0.9534495003956067</v>
       </c>
       <c r="D8">
-        <v>0.06013453884062869</v>
+        <v>0.03748176335487585</v>
       </c>
       <c r="E8">
-        <v>0.05513239531302538</v>
+        <v>1.370245579812007</v>
       </c>
       <c r="F8">
-        <v>1.109853882934985</v>
+        <v>0.4440963412042933</v>
       </c>
       <c r="G8">
-        <v>0.0008459734275005291</v>
+        <v>0.0007705172717353615</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08710586339832638</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7333904034105387</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1244890786079367</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1845794718545513</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.040828702591824</v>
+        <v>1.171298389780702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.195534847639465</v>
+        <v>4.670153159864412</v>
       </c>
       <c r="C9">
-        <v>0.1243777633754704</v>
+        <v>1.25854120576895</v>
       </c>
       <c r="D9">
-        <v>0.07537534589299355</v>
+        <v>0.04845951825805628</v>
       </c>
       <c r="E9">
-        <v>0.0566441865546885</v>
+        <v>1.904628270821107</v>
       </c>
       <c r="F9">
-        <v>1.140478353160759</v>
+        <v>0.5719243957679723</v>
       </c>
       <c r="G9">
-        <v>0.0008365232614150187</v>
+        <v>0.0007575363395391445</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0823296100413824</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9851555946264057</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1506986249123443</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2416114979458293</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.060607578455375</v>
+        <v>1.471852032810375</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.418277777434383</v>
+        <v>5.560268806890804</v>
       </c>
       <c r="C10">
-        <v>0.1273288795593288</v>
+        <v>1.485214488906252</v>
       </c>
       <c r="D10">
-        <v>0.08680711209274961</v>
+        <v>0.05664530721055883</v>
       </c>
       <c r="E10">
-        <v>0.05802219709347867</v>
+        <v>2.322005527160329</v>
       </c>
       <c r="F10">
-        <v>1.171711749148756</v>
+        <v>0.6788586430795363</v>
       </c>
       <c r="G10">
-        <v>0.0008299525408291406</v>
+        <v>0.0007483187425436127</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07917296610699687</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.17157771317639</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1705588772761288</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2842292488586935</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.10002871856139</v>
+        <v>1.736287612921188</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.520443045922633</v>
+        <v>5.969211083351865</v>
       </c>
       <c r="C11">
-        <v>0.12869425713928</v>
+        <v>1.589203920418356</v>
       </c>
       <c r="D11">
-        <v>0.09206825810938568</v>
+        <v>0.06040982474324608</v>
       </c>
       <c r="E11">
-        <v>0.05871147747762251</v>
+        <v>2.519515414215107</v>
       </c>
       <c r="F11">
-        <v>1.188026476487536</v>
+        <v>0.7310970168233126</v>
       </c>
       <c r="G11">
-        <v>0.0008270387788074173</v>
+        <v>0.0007441769524084341</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0778164459363957</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.256860147358765</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.179747363732794</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3038139791658523</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.123956292228456</v>
+        <v>1.868589470172623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.559268919218368</v>
+        <v>6.124773827319245</v>
       </c>
       <c r="C12">
-        <v>0.1292148542958813</v>
+        <v>1.628738126228427</v>
       </c>
       <c r="D12">
-        <v>0.09407009318903192</v>
+        <v>0.06184261659738866</v>
       </c>
       <c r="E12">
-        <v>0.0589818481636577</v>
+        <v>2.59562948098278</v>
       </c>
       <c r="F12">
-        <v>1.194526023679373</v>
+        <v>0.7514676455013642</v>
       </c>
       <c r="G12">
-        <v>0.000825945771571358</v>
+        <v>0.0007426142563734144</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07731446528091368</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.289237050459491</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1832509005426317</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.311262242812731</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.133931813798455</v>
+        <v>1.920657000486727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.550900637695179</v>
+        <v>6.091237065252074</v>
       </c>
       <c r="C13">
-        <v>0.1291025716494048</v>
+        <v>1.62021628777336</v>
       </c>
       <c r="D13">
-        <v>0.09363852375806658</v>
+        <v>0.0615336923972265</v>
       </c>
       <c r="E13">
-        <v>0.05892319661848511</v>
+        <v>2.579174270918756</v>
       </c>
       <c r="F13">
-        <v>1.193111620645908</v>
+        <v>0.7470530197557252</v>
       </c>
       <c r="G13">
-        <v>0.0008261807165805674</v>
+        <v>0.0007429505859019447</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07742205061332008</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.282260218530865</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1824952493328595</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3096566461629493</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.131741849269702</v>
+        <v>1.909351657525605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523634401115544</v>
+        <v>5.981994411985397</v>
       </c>
       <c r="C14">
-        <v>0.1287370140634536</v>
+        <v>1.59245311887048</v>
       </c>
       <c r="D14">
-        <v>0.09223275396822572</v>
+        <v>0.06052754737639532</v>
       </c>
       <c r="E14">
-        <v>0.05873353128354708</v>
+        <v>2.525749484437696</v>
       </c>
       <c r="F14">
-        <v>1.188554643444405</v>
+        <v>0.7327606687664314</v>
       </c>
       <c r="G14">
-        <v>0.0008269486513590097</v>
+        <v>0.0007440482843727255</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07777491145428073</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.259522084173398</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1800351082318983</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3044260908813854</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.124758338536765</v>
+        <v>1.872832176201655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.506951571143162</v>
+        <v>5.915175981730897</v>
       </c>
       <c r="C15">
-        <v>0.1285135711583507</v>
+        <v>1.575468599796352</v>
       </c>
       <c r="D15">
-        <v>0.09137294858107481</v>
+        <v>0.05991224352278834</v>
       </c>
       <c r="E15">
-        <v>0.05861858579192436</v>
+        <v>2.493204529720103</v>
       </c>
       <c r="F15">
-        <v>1.18580580768328</v>
+        <v>0.7240852042093451</v>
       </c>
       <c r="G15">
-        <v>0.0008274203701994114</v>
+        <v>0.000744721346776587</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07799258172160251</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.245605456762092</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1785313927958256</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3012264945347667</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.120601477907513</v>
+        <v>1.850726843422734</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411619378883756</v>
+        <v>5.53363491942747</v>
       </c>
       <c r="C16">
-        <v>0.1272401318789065</v>
+        <v>1.478438606471798</v>
       </c>
       <c r="D16">
-        <v>0.08646457513163597</v>
+        <v>0.05640022152631019</v>
       </c>
       <c r="E16">
-        <v>0.05797843889552823</v>
+        <v>2.309269822762175</v>
       </c>
       <c r="F16">
-        <v>1.170689493148103</v>
+        <v>0.6755230432628423</v>
       </c>
       <c r="G16">
-        <v>0.0008301444387304623</v>
+        <v>0.0007485903130532989</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0792632401047868</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.166015061570874</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1699616470284369</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2829536143974209</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.098590041801685</v>
+        <v>1.727902952230721</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353362993576667</v>
+        <v>5.300687919728546</v>
       </c>
       <c r="C17">
-        <v>0.1264649648524809</v>
+        <v>1.419157990854444</v>
       </c>
       <c r="D17">
-        <v>0.08346957544392808</v>
+        <v>0.05425707574409699</v>
       </c>
       <c r="E17">
-        <v>0.05760197857845561</v>
+        <v>2.198537140315693</v>
       </c>
       <c r="F17">
-        <v>1.161968493345782</v>
+        <v>0.6467009445061791</v>
       </c>
       <c r="G17">
-        <v>0.0008318345347558362</v>
+        <v>0.0007509758215070161</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08006329033083404</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.11732071292991</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1647451412079661</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2717968593069742</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.086658454602571</v>
+        <v>1.655792619796131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.31993325260197</v>
+        <v>5.167073336104238</v>
       </c>
       <c r="C18">
-        <v>0.1260212474958067</v>
+        <v>1.385141676507658</v>
       </c>
       <c r="D18">
-        <v>0.08175259969225124</v>
+        <v>0.05302813720694388</v>
       </c>
       <c r="E18">
-        <v>0.05739129937494525</v>
+        <v>2.135550865997416</v>
       </c>
       <c r="F18">
-        <v>1.157149492734305</v>
+        <v>0.6304566638523852</v>
       </c>
       <c r="G18">
-        <v>0.0008328137488484481</v>
+        <v>0.0007523528468301177</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08053091879646246</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.089357142213117</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1617591138887775</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2653981722900056</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.080356612111785</v>
+        <v>1.615430967274676</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308627362957424</v>
+        <v>5.121893730647344</v>
       </c>
       <c r="C19">
-        <v>0.1258713719569471</v>
+        <v>1.373637281602043</v>
       </c>
       <c r="D19">
-        <v>0.08117221093562677</v>
+        <v>0.05261264338035687</v>
       </c>
       <c r="E19">
-        <v>0.05732096071624859</v>
+        <v>2.114339516159717</v>
       </c>
       <c r="F19">
-        <v>1.155551165413456</v>
+        <v>0.625011828509713</v>
       </c>
       <c r="G19">
-        <v>0.0008331465295226672</v>
+        <v>0.0007528199807482719</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0806905229502668</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.079896340191056</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1607505079109259</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2632347408615736</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.078317704419931</v>
+        <v>1.601949714868709</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.359556311035163</v>
+        <v>5.325446324771633</v>
       </c>
       <c r="C20">
-        <v>0.1265472595611143</v>
+        <v>1.425459995105768</v>
       </c>
       <c r="D20">
-        <v>0.08378780585014312</v>
+        <v>0.05448482054296733</v>
       </c>
       <c r="E20">
-        <v>0.05764144521033288</v>
+        <v>2.210250434711142</v>
       </c>
       <c r="F20">
-        <v>1.162876330061763</v>
+        <v>0.6497341005681392</v>
       </c>
       <c r="G20">
-        <v>0.0008316538879315033</v>
+        <v>0.0007507213798648098</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07997734949954172</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.122499647082662</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1652989465635031</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.272982587589425</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.087870172513618</v>
+        <v>1.663351909176043</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.531639261587287</v>
+        <v>6.014061404798156</v>
       </c>
       <c r="C21">
-        <v>0.1288442883849399</v>
+        <v>1.600603352844928</v>
       </c>
       <c r="D21">
-        <v>0.09264539660139803</v>
+        <v>0.06082286766925193</v>
       </c>
       <c r="E21">
-        <v>0.0587889835464388</v>
+        <v>2.541403832657366</v>
       </c>
       <c r="F21">
-        <v>1.189884257745149</v>
+        <v>0.7369420707503735</v>
       </c>
       <c r="G21">
-        <v>0.0008267228125532993</v>
+        <v>0.0007437257231604488</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0776709477108728</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.266198478998348</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1807570424824689</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3059615352962624</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.126784303413928</v>
+        <v>1.883503363258569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.644919451279861</v>
+        <v>6.468291637405798</v>
       </c>
       <c r="C22">
-        <v>0.1303664103801978</v>
+        <v>1.715993697539091</v>
       </c>
       <c r="D22">
-        <v>0.09849044578108135</v>
+        <v>0.06500821190251571</v>
       </c>
       <c r="E22">
-        <v>0.05959368922580488</v>
+        <v>2.76566328394901</v>
       </c>
       <c r="F22">
-        <v>1.209419094440037</v>
+        <v>0.7974113547351038</v>
       </c>
       <c r="G22">
-        <v>0.0008235602894531289</v>
+        <v>0.0007391860033399157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07623194435146097</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.360600672214588</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.191001007917464</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3277032381553511</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.157575435169804</v>
+        <v>2.038988414660309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.584379068816446</v>
+        <v>6.225432000269564</v>
       </c>
       <c r="C23">
-        <v>0.1295520207234091</v>
+        <v>1.654312258275127</v>
       </c>
       <c r="D23">
-        <v>0.09536541636641971</v>
+        <v>0.06276995956053355</v>
       </c>
       <c r="E23">
-        <v>0.05915906360696788</v>
+        <v>2.645172295040652</v>
       </c>
       <c r="F23">
-        <v>1.198814152466056</v>
+        <v>0.7647936384224749</v>
       </c>
       <c r="G23">
-        <v>0.0008252428352353139</v>
+        <v>0.0007416065873020089</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07699361516695369</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.310167172431932</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1855200217308166</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3160808453807462</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.140632965739371</v>
+        <v>1.954853820018542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356756118442149</v>
+        <v>5.314252094415224</v>
       </c>
       <c r="C24">
-        <v>0.1265100481115766</v>
+        <v>1.422610659040799</v>
       </c>
       <c r="D24">
-        <v>0.08364391871485566</v>
+        <v>0.0543818473026505</v>
       </c>
       <c r="E24">
-        <v>0.05762358445565141</v>
+        <v>2.204952766859662</v>
       </c>
       <c r="F24">
-        <v>1.162465291658535</v>
+        <v>0.6483618008775949</v>
       </c>
       <c r="G24">
-        <v>0.0008317355347659504</v>
+        <v>0.0007508363954645825</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08001617948327322</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.120158153976973</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1650485307782077</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2724464718791708</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.087320621404842</v>
+        <v>1.659930959915187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.1141405041231</v>
+        <v>4.34516289540062</v>
       </c>
       <c r="C25">
-        <v>0.1233096457246745</v>
+        <v>1.175662098009525</v>
       </c>
       <c r="D25">
-        <v>0.0712142352828522</v>
+        <v>0.04547296341502971</v>
       </c>
       <c r="E25">
-        <v>0.05618966393798352</v>
+        <v>1.75639716116838</v>
       </c>
       <c r="F25">
-        <v>1.130727137800847</v>
+        <v>0.5352944310287526</v>
       </c>
       <c r="G25">
-        <v>0.000839012648482368</v>
+        <v>0.0007609863970889205</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08356077599532874</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9168425030069329</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1435093145241453</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2260702052001093</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.051075080943235</v>
+        <v>1.383668787425194</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.516539377158892</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>1.078588852915516</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04350420173832958</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.419166398039707</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.472515791760344</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007792636016987003</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009407384440288435</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.277260632581914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.060779801384797</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.9511387153850706</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.03898626743634281</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.218044655174424</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.4310114202132667</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.0007839042084106291</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006021793909746886</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.189011944184756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.78116008243444</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.87359336389639</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.03623777507969805</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.096911651310066</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4066227789309877</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007868358479447618</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004317012687420352</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.138426943591753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.667191196798228</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.8437270183374039</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03520616445518954</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.048043604885592</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.3961481752877631</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007880570292950782</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00376135697338098</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.116017533858042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.64822199796032</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.8407106350256299</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03513649939789332</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.039947653828108</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.3934623566796347</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007882673851986599</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.003746778042270194</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.109142225967361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.779499325879272</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.8784884188306989</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.03650150033514166</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.096224134122892</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4038525123599754</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007868689694541176</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004491715281754516</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.129367300635408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.35915009768047</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>1.041581425468934</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04231366816730997</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.349232821394779</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4544744364173638</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007808674799953397</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.008365928385478227</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.234434928888305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.499849896746582</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.35844943808803</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.05343420173026203</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.868677731637362</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5683922495544991</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007696917840793197</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01908626117053647</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.488660917460436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.343344342455623</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.599679545547531</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.0619309849569305</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>2.271600381442127</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6587116949687726</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007618150989550717</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0297290123805638</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.696892671837361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.728812441600951</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.720208489292531</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.06633152740253223</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>2.461300675634007</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.6976538564766344</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007583098459426427</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03556790276178123</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.784373770071852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.875273707070789</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.761292681960299</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.06775030166279095</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>2.534289032760199</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.7150632417429961</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007569789155685768</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0377610249083471</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.826287979662226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.843740394889835</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.75145372885612</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.06739250485865966</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>2.518525732698905</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.7117606621950046</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.0007572631490899412</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03725280503380191</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.818739865924272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.740865619365707</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.72316769101127</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.06642607279552237</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>2.467285667497748</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.6992754886482118</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007581993115455653</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03573261709733533</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.788448826704069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.677848752389139</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.707801802638642</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.06593716203332178</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>2.436033870324636</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.690764591165717</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007587778398641799</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03488187362864537</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.767035982827963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.317763693821632</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.607965184848581</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.06249831337174783</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>2.259216006557381</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.6485290530646637</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007620815860210559</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02985493460792554</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.665891769812589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>5.097431413053698</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.547085964193855</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.06039792244490627</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>2.152528401578252</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.6232469611579887</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.0007641225321531033</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.02697771689609052</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.605876999379745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.971015782787504</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.507314701841892</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.05893465276424337</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>2.091801238326426</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.611239715954099</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007652907878438075</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02520486716114156</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.579729249949793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.928144846896544</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.497632434803165</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.05863895716920808</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>2.071309092459586</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.6054217223431877</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007656959796628295</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02475889296226175</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.565074211779915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.120876494190384</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.553169766999133</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.06060085227606038</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>2.163825200279049</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6260974780276314</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007639038309240136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02726146111278283</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.612793806254501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.770921346933903</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.736956867280469</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.067000802567172</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.482256383194965</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7003351339900092</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007579359506373018</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03635845982994201</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.78872575005883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.198113164505116</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.851440491424967</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.07084702028519274</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.69702540378313</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7543929982663542</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.0007540623535256584</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.04280160602805338</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.921863553715895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.970073204496771</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.783587723937899</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.06844000897443436</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.581788937061958</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7284550675454113</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007561122197995173</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0390887220535463</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.860455886910245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.110550384075509</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.540093550188203</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.05996250411526916</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>2.158797249292547</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6297227669184764</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007639790849492597</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02677466222253155</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.625930566867396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.190293018286468</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.281730338667899</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.0509179980049197</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.724912907644182</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5315540212227958</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007726787525529291</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01606038940327714</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.399985515818884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.516539377158892</v>
+        <v>0.9187332527987735</v>
       </c>
       <c r="C2">
-        <v>1.078588852915516</v>
+        <v>0.1455128451183185</v>
       </c>
       <c r="D2">
-        <v>0.04350420173832958</v>
+        <v>0.1002084774231591</v>
       </c>
       <c r="E2">
-        <v>1.419166398039707</v>
+        <v>0.05934332637671247</v>
       </c>
       <c r="F2">
-        <v>0.472515791760344</v>
+        <v>0.6730743137364001</v>
       </c>
       <c r="G2">
-        <v>0.0007792636016987003</v>
+        <v>0.4209629093316067</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009407384440288435</v>
+        <v>0.01310658690847255</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3840595557366058</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4324754906797281</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07409003940849601</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8439560261707584</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1546931943267182</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1972338057072207</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.277260632581914</v>
+        <v>1.642211316643582</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.060779801384797</v>
+        <v>0.8001316502452198</v>
       </c>
       <c r="C3">
-        <v>0.9511387153850706</v>
+        <v>0.1392356028236534</v>
       </c>
       <c r="D3">
-        <v>0.03898626743634281</v>
+        <v>0.09183408242906665</v>
       </c>
       <c r="E3">
-        <v>1.218044655174424</v>
+        <v>0.05884161711654734</v>
       </c>
       <c r="F3">
-        <v>0.4310114202132667</v>
+        <v>0.6710295935996413</v>
       </c>
       <c r="G3">
-        <v>0.0007839042084106291</v>
+        <v>0.4226432075476012</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006021793909746886</v>
+        <v>0.01597225014693082</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.389729300245321</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4411944572730846</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07562839046180336</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7391668566681062</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1426899997808135</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1729656862372551</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.189011944184756</v>
+        <v>1.657343005672217</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.78116008243444</v>
+        <v>0.7271059158894104</v>
       </c>
       <c r="C4">
-        <v>0.87359336389639</v>
+        <v>0.1354176614367901</v>
       </c>
       <c r="D4">
-        <v>0.03623777507969805</v>
+        <v>0.08676295820443869</v>
       </c>
       <c r="E4">
-        <v>1.096911651310066</v>
+        <v>0.05857286597814593</v>
       </c>
       <c r="F4">
-        <v>0.4066227789309877</v>
+        <v>0.6704664314406443</v>
       </c>
       <c r="G4">
-        <v>0.0007868358479447618</v>
+        <v>0.4241813498322173</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004317012687420352</v>
+        <v>0.01798173144903759</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3935475514136257</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.446923325073989</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07660742409123822</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6748132779880223</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1355036745222904</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1580931048762366</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.138426943591753</v>
+        <v>1.668405204878511</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.667191196798228</v>
+        <v>0.697006104956813</v>
       </c>
       <c r="C5">
-        <v>0.8437270183374039</v>
+        <v>0.1340337292722609</v>
       </c>
       <c r="D5">
-        <v>0.03520616445518954</v>
+        <v>0.08473915779627106</v>
       </c>
       <c r="E5">
-        <v>1.048043604885592</v>
+        <v>0.05845331838448153</v>
       </c>
       <c r="F5">
-        <v>0.3961481752877631</v>
+        <v>0.669998912325994</v>
       </c>
       <c r="G5">
-        <v>0.0007880570292950782</v>
+        <v>0.4245930526119892</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00376135697338098</v>
+        <v>0.01895209448196544</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3950088627061916</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4490525580120952</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07699624371254199</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6488672562027631</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1327478471157164</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1520571967220867</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.116017533858042</v>
+        <v>1.67225664036232</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.64822199796032</v>
+        <v>0.6916533575509334</v>
       </c>
       <c r="C6">
-        <v>0.8407106350256299</v>
+        <v>0.1340062956566825</v>
       </c>
       <c r="D6">
-        <v>0.03513649939789332</v>
+        <v>0.08443543655818075</v>
       </c>
       <c r="E6">
-        <v>1.039947653828108</v>
+        <v>0.05840984981958819</v>
       </c>
       <c r="F6">
-        <v>0.3934623566796347</v>
+        <v>0.6694328854313767</v>
       </c>
       <c r="G6">
-        <v>0.0007882673851986599</v>
+        <v>0.4242548529399031</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003746778042270194</v>
+        <v>0.01923472554609962</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.395039119076138</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4490479204500275</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07703845651113905</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6449094649003371</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1324499854081367</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1510783238521114</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.109142225967361</v>
+        <v>1.671589094806635</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.779499325879272</v>
+        <v>0.7257370254225179</v>
       </c>
       <c r="C7">
-        <v>0.8784884188306989</v>
+        <v>0.1359527649388568</v>
       </c>
       <c r="D7">
-        <v>0.03650150033514166</v>
+        <v>0.0868210756544272</v>
       </c>
       <c r="E7">
-        <v>1.096224134122892</v>
+        <v>0.05850521349068671</v>
       </c>
       <c r="F7">
-        <v>0.4038525123599754</v>
+        <v>0.6691004155181233</v>
       </c>
       <c r="G7">
-        <v>0.0007868689694541176</v>
+        <v>0.4230581082621754</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.004491715281754516</v>
+        <v>0.01829932632110154</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3929753254290773</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4459613952093839</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07655079633163719</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6754255830113323</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1358953822418414</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1580744533049874</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.129367300635408</v>
+        <v>1.664823876300943</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.35915009768047</v>
+        <v>0.8765903541880107</v>
       </c>
       <c r="C8">
-        <v>1.041581425468934</v>
+        <v>0.1440876813964707</v>
       </c>
       <c r="D8">
-        <v>0.04231366816730997</v>
+        <v>0.09741890060477232</v>
       </c>
       <c r="E8">
-        <v>1.349232821394779</v>
+        <v>0.05907522892278294</v>
       </c>
       <c r="F8">
-        <v>0.4544744364173638</v>
+        <v>0.6704370220680431</v>
       </c>
       <c r="G8">
-        <v>0.0007808674799953397</v>
+        <v>0.4199534720663465</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008365928385478227</v>
+        <v>0.01440736153594102</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3851705231476714</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4341091128153991</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07453441794358895</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8091112333657975</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1510837564178331</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1889417989329658</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.234434928888305</v>
+        <v>1.642294133439194</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.499849896746582</v>
+        <v>1.172704696787918</v>
       </c>
       <c r="C9">
-        <v>1.35844943808803</v>
+        <v>0.1593686066077922</v>
       </c>
       <c r="D9">
-        <v>0.05343420173026203</v>
+        <v>0.1186416615085477</v>
       </c>
       <c r="E9">
-        <v>1.868677731637362</v>
+        <v>0.06062809682301662</v>
       </c>
       <c r="F9">
-        <v>0.5683922495544991</v>
+        <v>0.6811664504201005</v>
       </c>
       <c r="G9">
-        <v>0.0007696917840793197</v>
+        <v>0.4200578816004636</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.01908626117053647</v>
+        <v>0.00838340781916358</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3736524834529646</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4156709059053831</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07096103292656064</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.069667597094252</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1816399806835847</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2496418700319012</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.488660917460436</v>
+        <v>1.619109619619138</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.343344342455623</v>
+        <v>1.389132935849261</v>
       </c>
       <c r="C10">
-        <v>1.599679545547531</v>
+        <v>0.1711848531758235</v>
       </c>
       <c r="D10">
-        <v>0.0619309849569305</v>
+        <v>0.1346851773386391</v>
       </c>
       <c r="E10">
-        <v>2.271600381442127</v>
+        <v>0.06193941501828704</v>
       </c>
       <c r="F10">
-        <v>0.6587116949687726</v>
+        <v>0.6921658051076207</v>
       </c>
       <c r="G10">
-        <v>0.0007618150989550717</v>
+        <v>0.4224038056443575</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0297290123805638</v>
+        <v>0.005492772323785644</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3666881402710729</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4036427719703823</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06847914570378322</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.262060392622288</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2053657228363903</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2945265513339521</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.696892671837361</v>
+        <v>1.609985639713145</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.728812441600951</v>
+        <v>1.485869857764413</v>
       </c>
       <c r="C11">
-        <v>1.720208489292531</v>
+        <v>0.1776338647895415</v>
       </c>
       <c r="D11">
-        <v>0.06633152740253223</v>
+        <v>0.1422228731537842</v>
       </c>
       <c r="E11">
-        <v>2.461300675634007</v>
+        <v>0.06247624059442636</v>
       </c>
       <c r="F11">
-        <v>0.6976538564766344</v>
+        <v>0.695901221609887</v>
       </c>
       <c r="G11">
-        <v>0.0007583098459426427</v>
+        <v>0.4223596638463363</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03556790276178123</v>
+        <v>0.004951463315180149</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3630125827797315</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3971012687903048</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06730141711834747</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.351414393233682</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2171259104921432</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3151204593057386</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.784373770071852</v>
+        <v>1.602408403038737</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.875273707070789</v>
+        <v>1.523367655452688</v>
       </c>
       <c r="C12">
-        <v>1.761292681960299</v>
+        <v>0.1795691486599083</v>
       </c>
       <c r="D12">
-        <v>0.06775030166279095</v>
+        <v>0.1450183962928833</v>
       </c>
       <c r="E12">
-        <v>2.534289032760199</v>
+        <v>0.06274271496906358</v>
       </c>
       <c r="F12">
-        <v>0.7150632417429961</v>
+        <v>0.6986019115455804</v>
       </c>
       <c r="G12">
-        <v>0.0007569789155685768</v>
+        <v>0.4233968220796527</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0377610249083471</v>
+        <v>0.004562605103557438</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3621737330058821</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3955124476579392</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0669077991242748</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.384419692194996</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.221243073107928</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.3228793675670758</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.826287979662226</v>
+        <v>1.60293028583223</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.843740394889835</v>
+        <v>1.515467891832714</v>
       </c>
       <c r="C13">
-        <v>1.75145372885612</v>
+        <v>0.179045823788428</v>
       </c>
       <c r="D13">
-        <v>0.06739250485865966</v>
+        <v>0.1444007242049707</v>
       </c>
       <c r="E13">
-        <v>2.518525732698905</v>
+        <v>0.06269634335502516</v>
       </c>
       <c r="F13">
-        <v>0.7117606621950046</v>
+        <v>0.6982452437562756</v>
       </c>
       <c r="G13">
-        <v>0.0007572631490899412</v>
+        <v>0.4233596112505253</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03725280503380191</v>
+        <v>0.004594581952505727</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3624500223001377</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3960153226364724</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06700159987608156</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.37713476168463</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2202788201930161</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.3211972593263539</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.818739865924272</v>
+        <v>1.603412863026392</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.740865619365707</v>
+        <v>1.489029554294035</v>
       </c>
       <c r="C14">
-        <v>1.72316769101127</v>
+        <v>0.1777478429021784</v>
       </c>
       <c r="D14">
-        <v>0.06642607279552237</v>
+        <v>0.1424462144752141</v>
       </c>
       <c r="E14">
-        <v>2.467285667497748</v>
+        <v>0.06250283826910064</v>
       </c>
       <c r="F14">
-        <v>0.6992754886482118</v>
+        <v>0.6962188788605772</v>
       </c>
       <c r="G14">
-        <v>0.0007581993115455653</v>
+        <v>0.4225240037677835</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03573261709733533</v>
+        <v>0.004897077200822331</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3629841637025635</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3970387984931065</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06727287313065844</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.354054723871087</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2174316419679769</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.315754059473349</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.788448826704069</v>
+        <v>1.602703879795072</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.677848752389139</v>
+        <v>1.472489081008348</v>
       </c>
       <c r="C15">
-        <v>1.707801802638642</v>
+        <v>0.1771630873764281</v>
       </c>
       <c r="D15">
-        <v>0.06593716203332178</v>
+        <v>0.141280420300248</v>
       </c>
       <c r="E15">
-        <v>2.436033870324636</v>
+        <v>0.06236289258433025</v>
       </c>
       <c r="F15">
-        <v>0.690764591165717</v>
+        <v>0.6945400635995611</v>
       </c>
       <c r="G15">
-        <v>0.0007587778398641799</v>
+        <v>0.4216496783963066</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03488187362864537</v>
+        <v>0.005191054837027309</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.363125357208979</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3973518741894395</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06742141549496949</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.340266545205424</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2158421187672843</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.3124423812356909</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.767035982827963</v>
+        <v>1.601111480270973</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.317763693821632</v>
+        <v>1.379904346851959</v>
       </c>
       <c r="C16">
-        <v>1.607965184848581</v>
+        <v>0.1725049672623697</v>
       </c>
       <c r="D16">
-        <v>0.06249831337174783</v>
+        <v>0.1344422592377441</v>
       </c>
       <c r="E16">
-        <v>2.259216006557381</v>
+        <v>0.06171696216520139</v>
       </c>
       <c r="F16">
-        <v>0.6485290530646637</v>
+        <v>0.6880928900753887</v>
       </c>
       <c r="G16">
-        <v>0.0007620815860210559</v>
+        <v>0.4192414685503749</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02985493460792554</v>
+        <v>0.006347833778906242</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3652943190248408</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4013430627350161</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06840015930370669</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.259118064711714</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2058581854403911</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2933575773738397</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.665891769812589</v>
+        <v>1.600348228690436</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.097431413053698</v>
+        <v>1.32310652365905</v>
       </c>
       <c r="C17">
-        <v>1.547085964193855</v>
+        <v>0.1696617357128929</v>
       </c>
       <c r="D17">
-        <v>0.06039792244490627</v>
+        <v>0.1302724790238727</v>
       </c>
       <c r="E17">
-        <v>2.152528401578252</v>
+        <v>0.06133341886983601</v>
       </c>
       <c r="F17">
-        <v>0.6232469611579887</v>
+        <v>0.6843858224925228</v>
       </c>
       <c r="G17">
-        <v>0.0007641225321531033</v>
+        <v>0.4179526933791422</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.02697771689609052</v>
+        <v>0.007151754514973518</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3667380076803113</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.403921873277632</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06901070137719589</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.209377534873596</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1997960820435623</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2816701128625922</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.605876999379745</v>
+        <v>1.600514575953483</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.971015782787504</v>
+        <v>1.291312293032291</v>
       </c>
       <c r="C18">
-        <v>1.507314701841892</v>
+        <v>0.1675023345178985</v>
       </c>
       <c r="D18">
-        <v>0.05893465276424337</v>
+        <v>0.1278080307645126</v>
       </c>
       <c r="E18">
-        <v>2.091801238326426</v>
+        <v>0.06117447984357405</v>
       </c>
       <c r="F18">
-        <v>0.611239715954099</v>
+        <v>0.68350817966774</v>
       </c>
       <c r="G18">
-        <v>0.0007652907878438075</v>
+        <v>0.4182415712894354</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02520486716114156</v>
+        <v>0.007361975731682513</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3681074629993972</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4062807017181598</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06941323204664318</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.179906681165306</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1959507724945624</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2749014392408142</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.579729249949793</v>
+        <v>1.603922448925744</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.928144846896544</v>
+        <v>1.279870920511513</v>
       </c>
       <c r="C19">
-        <v>1.497632434803165</v>
+        <v>0.1671796155689904</v>
       </c>
       <c r="D19">
-        <v>0.05863895716920808</v>
+        <v>0.1270330396548047</v>
       </c>
       <c r="E19">
-        <v>2.071309092459586</v>
+        <v>0.06107744308075347</v>
       </c>
       <c r="F19">
-        <v>0.6054217223431877</v>
+        <v>0.6823271022083617</v>
       </c>
       <c r="G19">
-        <v>0.0007656959796628295</v>
+        <v>0.4176082006388953</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02475889296226175</v>
+        <v>0.007655915774639865</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3681937487404028</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4064481031901401</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06951338210164693</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.170604942623584</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1949463057016771</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2726519630119952</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.565074211779915</v>
+        <v>1.602735661362345</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.120876494190384</v>
+        <v>1.329221744108366</v>
       </c>
       <c r="C20">
-        <v>1.553169766999133</v>
+        <v>0.1699222313631026</v>
       </c>
       <c r="D20">
-        <v>0.06060085227606038</v>
+        <v>0.1307095299173966</v>
       </c>
       <c r="E20">
-        <v>2.163825200279049</v>
+        <v>0.06137824393920432</v>
       </c>
       <c r="F20">
-        <v>0.6260974780276314</v>
+        <v>0.684862546369871</v>
       </c>
       <c r="G20">
-        <v>0.0007639038309240136</v>
+        <v>0.4181583006165113</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02726146111278283</v>
+        <v>0.007040057250025988</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3666191131743517</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4037073454504387</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06894904346462383</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.214602377816675</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2004091684823948</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2829093493264736</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.612793806254501</v>
+        <v>1.600714847715651</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.770921346933903</v>
+        <v>1.495809217220398</v>
       </c>
       <c r="C21">
-        <v>1.736956867280469</v>
+        <v>0.1787240143118254</v>
       </c>
       <c r="D21">
-        <v>0.067000802567172</v>
+        <v>0.1431035529024172</v>
       </c>
       <c r="E21">
-        <v>2.482256383194965</v>
+        <v>0.06249597997402745</v>
       </c>
       <c r="F21">
-        <v>0.7003351339900092</v>
+        <v>0.6955148292938347</v>
       </c>
       <c r="G21">
-        <v>0.0007579359506373018</v>
+        <v>0.421697121343982</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03635845982994201</v>
+        <v>0.005096685503841236</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3622738205213452</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3958183699027735</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06714108704249</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.361814253061397</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2186919502718752</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3174113909090295</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.78872575005883</v>
+        <v>1.599479786895202</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.198113164505116</v>
+        <v>1.605957035780762</v>
       </c>
       <c r="C22">
-        <v>1.851440491424967</v>
+        <v>0.1837722178607493</v>
       </c>
       <c r="D22">
-        <v>0.07084702028519274</v>
+        <v>0.1511834865071364</v>
       </c>
       <c r="E22">
-        <v>2.69702540378313</v>
+        <v>0.06334954185551744</v>
       </c>
       <c r="F22">
-        <v>0.7543929982663542</v>
+        <v>0.7049600999287975</v>
       </c>
       <c r="G22">
-        <v>0.0007540623535256584</v>
+        <v>0.4260077287944455</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.04280160602805338</v>
+        <v>0.003771890103813291</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3605142270117412</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3922655936599497</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.06605879616744748</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.456942613236635</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2303150110948451</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.339959278502171</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.921863553715895</v>
+        <v>1.605163557578635</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.970073204496771</v>
+        <v>1.548355308459833</v>
       </c>
       <c r="C23">
-        <v>1.783587723937899</v>
+        <v>0.1803562844899318</v>
       </c>
       <c r="D23">
-        <v>0.06844000897443436</v>
+        <v>0.1467621192840909</v>
       </c>
       <c r="E23">
-        <v>2.581788937061958</v>
+        <v>0.06296656503591258</v>
       </c>
       <c r="F23">
-        <v>0.7284550675454113</v>
+        <v>0.7014013311715956</v>
       </c>
       <c r="G23">
-        <v>0.0007561122197995173</v>
+        <v>0.4249357334288248</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0390887220535463</v>
+        <v>0.004117665035411555</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3620824761854848</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3952272787906672</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06669591094627503</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.404970253098128</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2235791670328382</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3278468993202281</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.860455886910245</v>
+        <v>1.606052884832593</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.110550384075509</v>
+        <v>1.328314390128298</v>
       </c>
       <c r="C24">
-        <v>1.540093550188203</v>
+        <v>0.168688188000651</v>
       </c>
       <c r="D24">
-        <v>0.05996250411526916</v>
+        <v>0.130353101912533</v>
       </c>
       <c r="E24">
-        <v>2.158797249292547</v>
+        <v>0.06147870583388482</v>
       </c>
       <c r="F24">
-        <v>0.6297227669184764</v>
+        <v>0.6871135982967758</v>
       </c>
       <c r="G24">
-        <v>0.0007639790849492597</v>
+        <v>0.42010324890569</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02677466222253155</v>
+        <v>0.006526836137966008</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3677268794676678</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.405558918171856</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06907772866082507</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.21038856060224</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1993265837688938</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2822364257771781</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.625930566867396</v>
+        <v>1.607152156311187</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.190293018286468</v>
+        <v>1.090942394235725</v>
       </c>
       <c r="C25">
-        <v>1.281730338667899</v>
+        <v>0.1562436306615851</v>
       </c>
       <c r="D25">
-        <v>0.0509179980049197</v>
+        <v>0.1129864259520019</v>
       </c>
       <c r="E25">
-        <v>1.724912907644182</v>
+        <v>0.0600551655024244</v>
       </c>
       <c r="F25">
-        <v>0.5315540212227958</v>
+        <v>0.6752068115158423</v>
       </c>
       <c r="G25">
-        <v>0.0007726787525529291</v>
+        <v>0.4175540221960148</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01606038940327714</v>
+        <v>0.01028091060773928</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3754251779941953</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4185847346553082</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.0717956066193759</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.000908263624041</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1739759487509644</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2332929233477152</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.399985515818884</v>
+        <v>1.617326637686205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9187332527987735</v>
+        <v>0.9106756540165577</v>
       </c>
       <c r="C2">
-        <v>0.1455128451183185</v>
+        <v>0.1333793434088619</v>
       </c>
       <c r="D2">
-        <v>0.1002084774231591</v>
+        <v>0.1018616675319066</v>
       </c>
       <c r="E2">
-        <v>0.05934332637671247</v>
+        <v>0.05656969961734326</v>
       </c>
       <c r="F2">
-        <v>0.6730743137364001</v>
+        <v>0.6303136041026605</v>
       </c>
       <c r="G2">
-        <v>0.4209629093316067</v>
+        <v>0.3764070178005028</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01310658690847255</v>
+        <v>0.009734014415016645</v>
       </c>
       <c r="J2">
-        <v>0.3840595557366058</v>
+        <v>0.3765195965780421</v>
       </c>
       <c r="K2">
-        <v>0.4324754906797281</v>
+        <v>0.3898842209634701</v>
       </c>
       <c r="L2">
-        <v>0.07409003940849601</v>
+        <v>0.1688142147987239</v>
       </c>
       <c r="M2">
-        <v>0.8439560261707584</v>
+        <v>0.1257393621002709</v>
       </c>
       <c r="N2">
-        <v>0.1546931943267182</v>
+        <v>0.06867898561003072</v>
       </c>
       <c r="O2">
-        <v>0.1972338057072207</v>
+        <v>0.8620940592185207</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1656615726749422</v>
       </c>
       <c r="Q2">
-        <v>1.642211316643582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1981668503188878</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.520419364322962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8001316502452198</v>
+        <v>0.7949918447716584</v>
       </c>
       <c r="C3">
-        <v>0.1392356028236534</v>
+        <v>0.1243034569090895</v>
       </c>
       <c r="D3">
-        <v>0.09183408242906665</v>
+        <v>0.09325713585840845</v>
       </c>
       <c r="E3">
-        <v>0.05884161711654734</v>
+        <v>0.05617348804241118</v>
       </c>
       <c r="F3">
-        <v>0.6710295935996413</v>
+        <v>0.6300534008502723</v>
       </c>
       <c r="G3">
-        <v>0.4226432075476012</v>
+        <v>0.3812340046756759</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01597225014693082</v>
+        <v>0.0119076075972564</v>
       </c>
       <c r="J3">
-        <v>0.389729300245321</v>
+        <v>0.3795046108695956</v>
       </c>
       <c r="K3">
-        <v>0.4411944572730846</v>
+        <v>0.3990433208268254</v>
       </c>
       <c r="L3">
-        <v>0.07562839046180336</v>
+        <v>0.1745326961090807</v>
       </c>
       <c r="M3">
-        <v>0.7391668566681062</v>
+        <v>0.1285302022096921</v>
       </c>
       <c r="N3">
-        <v>0.1426899997808135</v>
+        <v>0.07010285315935239</v>
       </c>
       <c r="O3">
-        <v>0.1729656862372551</v>
+        <v>0.7540000389342367</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1526140103148776</v>
       </c>
       <c r="Q3">
-        <v>1.657343005672217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1735694928465001</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.539234196999359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7271059158894104</v>
+        <v>0.723658519097313</v>
       </c>
       <c r="C4">
-        <v>0.1354176614367901</v>
+        <v>0.1188248227968671</v>
       </c>
       <c r="D4">
-        <v>0.08676295820443869</v>
+        <v>0.08805010610274167</v>
       </c>
       <c r="E4">
-        <v>0.05857286597814593</v>
+        <v>0.05596444124218003</v>
       </c>
       <c r="F4">
-        <v>0.6704664314406443</v>
+        <v>0.6304610366545873</v>
       </c>
       <c r="G4">
-        <v>0.4241813498322173</v>
+        <v>0.3847146689655006</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01798173144903759</v>
+        <v>0.01345074422411408</v>
       </c>
       <c r="J4">
-        <v>0.3935475514136257</v>
+        <v>0.3814836221790401</v>
       </c>
       <c r="K4">
-        <v>0.446923325073989</v>
+        <v>0.4049534094758638</v>
       </c>
       <c r="L4">
-        <v>0.07660742409123822</v>
+        <v>0.1781984431599994</v>
       </c>
       <c r="M4">
-        <v>0.6748132779880223</v>
+        <v>0.1308143666822819</v>
       </c>
       <c r="N4">
-        <v>0.1355036745222904</v>
+        <v>0.0710069869351857</v>
       </c>
       <c r="O4">
-        <v>0.1580931048762366</v>
+        <v>0.6876540456534599</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1448235185898099</v>
       </c>
       <c r="Q4">
-        <v>1.668405204878511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.158486568283827</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.552217584138859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.697006104956813</v>
+        <v>0.6942271820115025</v>
       </c>
       <c r="C5">
-        <v>0.1340337292722609</v>
+        <v>0.1167987881933001</v>
       </c>
       <c r="D5">
-        <v>0.08473915779627106</v>
+        <v>0.08597229935923423</v>
       </c>
       <c r="E5">
-        <v>0.05845331838448153</v>
+        <v>0.05586860448076258</v>
       </c>
       <c r="F5">
-        <v>0.669998912325994</v>
+        <v>0.6303729414860584</v>
       </c>
       <c r="G5">
-        <v>0.4245930526119892</v>
+        <v>0.3859407116001492</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01895209448196544</v>
+        <v>0.01423224425255665</v>
       </c>
       <c r="J5">
-        <v>0.3950088627061916</v>
+        <v>0.3821478864455798</v>
       </c>
       <c r="K5">
-        <v>0.4490525580120952</v>
+        <v>0.4071547961566857</v>
       </c>
       <c r="L5">
-        <v>0.07699624371254199</v>
+        <v>0.1795837137936687</v>
       </c>
       <c r="M5">
-        <v>0.6488672562027631</v>
+        <v>0.1318268148219861</v>
       </c>
       <c r="N5">
-        <v>0.1327478471157164</v>
+        <v>0.07136628626102848</v>
       </c>
       <c r="O5">
-        <v>0.1520571967220867</v>
+        <v>0.660905758650685</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1418320731744203</v>
       </c>
       <c r="Q5">
-        <v>1.67225664036232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1523628019907726</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.556816096920628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6916533575509334</v>
+        <v>0.6889875391769351</v>
       </c>
       <c r="C6">
-        <v>0.1340062956566825</v>
+        <v>0.1166908419372703</v>
       </c>
       <c r="D6">
-        <v>0.08443543655818075</v>
+        <v>0.08565967902248417</v>
       </c>
       <c r="E6">
-        <v>0.05840984981958819</v>
+        <v>0.05582978300802743</v>
       </c>
       <c r="F6">
-        <v>0.6694328854313767</v>
+        <v>0.6298861497827914</v>
       </c>
       <c r="G6">
-        <v>0.4242548529399031</v>
+        <v>0.3857632399320821</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01923472554609962</v>
+        <v>0.0144982017971893</v>
       </c>
       <c r="J6">
-        <v>0.395039119076138</v>
+        <v>0.382042377715976</v>
       </c>
       <c r="K6">
-        <v>0.4490479204500275</v>
+        <v>0.4071859641657927</v>
       </c>
       <c r="L6">
-        <v>0.07703845651113905</v>
+        <v>0.1796369695301827</v>
       </c>
       <c r="M6">
-        <v>0.6449094649003371</v>
+        <v>0.1319283924507362</v>
       </c>
       <c r="N6">
-        <v>0.1324499854081367</v>
+        <v>0.07140619023746719</v>
       </c>
       <c r="O6">
-        <v>0.1510783238521114</v>
+        <v>0.6568150817753775</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1414972802557131</v>
       </c>
       <c r="Q6">
-        <v>1.671589094806635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1513689026980458</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.556327072322233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7257370254225179</v>
+        <v>0.7224197312624199</v>
       </c>
       <c r="C7">
-        <v>0.1359527649388568</v>
+        <v>0.1193077065584447</v>
       </c>
       <c r="D7">
-        <v>0.0868210756544272</v>
+        <v>0.08824926481354822</v>
       </c>
       <c r="E7">
-        <v>0.05850521349068671</v>
+        <v>0.05591612073848928</v>
       </c>
       <c r="F7">
-        <v>0.6691004155181233</v>
+        <v>0.62844505310823</v>
       </c>
       <c r="G7">
-        <v>0.4230581082621754</v>
+        <v>0.3856251788884748</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01829932632110154</v>
+        <v>0.01381414534678527</v>
       </c>
       <c r="J7">
-        <v>0.3929753254290773</v>
+        <v>0.3778296590354131</v>
       </c>
       <c r="K7">
-        <v>0.4459613952093839</v>
+        <v>0.4037113346336341</v>
       </c>
       <c r="L7">
-        <v>0.07655079633163719</v>
+        <v>0.1775624219168144</v>
       </c>
       <c r="M7">
-        <v>0.6754255830113323</v>
+        <v>0.1305269970497243</v>
       </c>
       <c r="N7">
-        <v>0.1358953822418414</v>
+        <v>0.07094792129143102</v>
       </c>
       <c r="O7">
-        <v>0.1580744533049874</v>
+        <v>0.6880722301932849</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1452147193970816</v>
       </c>
       <c r="Q7">
-        <v>1.664823876300943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.158482216143554</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.546806378514205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8765903541880107</v>
+        <v>0.8699455012070416</v>
       </c>
       <c r="C8">
-        <v>0.1440876813964707</v>
+        <v>0.1306979858717412</v>
       </c>
       <c r="D8">
-        <v>0.09741890060477232</v>
+        <v>0.09946639411747071</v>
       </c>
       <c r="E8">
-        <v>0.05907522892278294</v>
+        <v>0.05639879070124998</v>
       </c>
       <c r="F8">
-        <v>0.6704370220680431</v>
+        <v>0.6260720250026708</v>
       </c>
       <c r="G8">
-        <v>0.4199534720663465</v>
+        <v>0.3831068550889469</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01440736153594102</v>
+        <v>0.01087870002301994</v>
       </c>
       <c r="J8">
-        <v>0.3851705231476714</v>
+        <v>0.3668611451741128</v>
       </c>
       <c r="K8">
-        <v>0.4341091128153991</v>
+        <v>0.3906566676937153</v>
       </c>
       <c r="L8">
-        <v>0.07453441794358895</v>
+        <v>0.1696687733467144</v>
       </c>
       <c r="M8">
-        <v>0.8091112333657975</v>
+        <v>0.1259201409452544</v>
       </c>
       <c r="N8">
-        <v>0.1510837564178331</v>
+        <v>0.06906689626115581</v>
       </c>
       <c r="O8">
-        <v>0.1889417989329658</v>
+        <v>0.8254921462350922</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1616825115967515</v>
       </c>
       <c r="Q8">
-        <v>1.642294133439194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1898150032331607</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.515520514564599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.172704696787918</v>
+        <v>1.158278571704841</v>
       </c>
       <c r="C9">
-        <v>0.1593686066077922</v>
+        <v>0.1531008012986632</v>
       </c>
       <c r="D9">
-        <v>0.1186416615085477</v>
+        <v>0.1214281287611101</v>
       </c>
       <c r="E9">
-        <v>0.06062809682301662</v>
+        <v>0.05767360335811667</v>
       </c>
       <c r="F9">
-        <v>0.6811664504201005</v>
+        <v>0.6309663886774572</v>
       </c>
       <c r="G9">
-        <v>0.4200578816004636</v>
+        <v>0.37713631641207</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00838340781916358</v>
+        <v>0.006288015508705946</v>
       </c>
       <c r="J9">
-        <v>0.3736524834529646</v>
+        <v>0.3583390942457285</v>
       </c>
       <c r="K9">
-        <v>0.4156709059053831</v>
+        <v>0.3702685259058143</v>
       </c>
       <c r="L9">
-        <v>0.07096103292656064</v>
+        <v>0.1568127638328143</v>
       </c>
       <c r="M9">
-        <v>1.069667597094252</v>
+        <v>0.1222161828092965</v>
       </c>
       <c r="N9">
-        <v>0.1816399806835847</v>
+        <v>0.06574147371381844</v>
       </c>
       <c r="O9">
-        <v>0.2496418700319012</v>
+        <v>1.094291993542953</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1950402132707225</v>
       </c>
       <c r="Q9">
-        <v>1.619109619619138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2512954439975985</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.47932505306882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.389132935849261</v>
+        <v>1.369087618357582</v>
       </c>
       <c r="C10">
-        <v>0.1711848531758235</v>
+        <v>0.169806667755978</v>
       </c>
       <c r="D10">
-        <v>0.1346851773386391</v>
+        <v>0.138894132421413</v>
       </c>
       <c r="E10">
-        <v>0.06193941501828704</v>
+        <v>0.05885895883626269</v>
       </c>
       <c r="F10">
-        <v>0.6921658051076207</v>
+        <v>0.6330489216907367</v>
       </c>
       <c r="G10">
-        <v>0.4224038056443575</v>
+        <v>0.3869640231821165</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.005492772323785644</v>
+        <v>0.004258346727769258</v>
       </c>
       <c r="J10">
-        <v>0.3666881402710729</v>
+        <v>0.336739905110548</v>
       </c>
       <c r="K10">
-        <v>0.4036427719703823</v>
+        <v>0.3545219011955005</v>
       </c>
       <c r="L10">
-        <v>0.06847914570378322</v>
+        <v>0.1473460156208528</v>
       </c>
       <c r="M10">
-        <v>1.262060392622288</v>
+        <v>0.1213882403321662</v>
       </c>
       <c r="N10">
-        <v>0.2053657228363903</v>
+        <v>0.06338371723938119</v>
       </c>
       <c r="O10">
-        <v>0.2945265513339521</v>
+        <v>1.291755874939696</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2209840920119603</v>
       </c>
       <c r="Q10">
-        <v>1.609985639713145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2967826701875964</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.447753952773041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.485869857764413</v>
+        <v>1.464336153430281</v>
       </c>
       <c r="C11">
-        <v>0.1776338647895415</v>
+        <v>0.1774714611550081</v>
       </c>
       <c r="D11">
-        <v>0.1422228731537842</v>
+        <v>0.148626694660976</v>
       </c>
       <c r="E11">
-        <v>0.06247624059442636</v>
+        <v>0.05952427218917222</v>
       </c>
       <c r="F11">
-        <v>0.695901221609887</v>
+        <v>0.6256990629157357</v>
       </c>
       <c r="G11">
-        <v>0.4223596638463363</v>
+        <v>0.4125642108286698</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.004951463315180149</v>
+        <v>0.004154817874391981</v>
       </c>
       <c r="J11">
-        <v>0.3630125827797315</v>
+        <v>0.3031810667722681</v>
       </c>
       <c r="K11">
-        <v>0.3971012687903048</v>
+        <v>0.3431519461423491</v>
       </c>
       <c r="L11">
-        <v>0.06730141711834747</v>
+        <v>0.1417595307171933</v>
       </c>
       <c r="M11">
-        <v>1.351414393233682</v>
+        <v>0.1196534061958694</v>
       </c>
       <c r="N11">
-        <v>0.2171259104921432</v>
+        <v>0.06220937345055999</v>
       </c>
       <c r="O11">
-        <v>0.3151204593057386</v>
+        <v>1.381484635094751</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.233750896868429</v>
       </c>
       <c r="Q11">
-        <v>1.602408403038737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.317787579823225</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.41053581275915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.523367655452688</v>
+        <v>1.501390259735416</v>
       </c>
       <c r="C12">
-        <v>0.1795691486599083</v>
+        <v>0.1796275547655455</v>
       </c>
       <c r="D12">
-        <v>0.1450183962928833</v>
+        <v>0.1524622586605773</v>
       </c>
       <c r="E12">
-        <v>0.06274271496906358</v>
+        <v>0.0598622548515344</v>
       </c>
       <c r="F12">
-        <v>0.6986019115455804</v>
+        <v>0.6232089375526613</v>
       </c>
       <c r="G12">
-        <v>0.4233968220796527</v>
+        <v>0.4267203761560125</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.004562605103557438</v>
+        <v>0.003882038621451755</v>
       </c>
       <c r="J12">
-        <v>0.3621737330058821</v>
+        <v>0.2899293826942611</v>
       </c>
       <c r="K12">
-        <v>0.3955124476579392</v>
+        <v>0.3392155287101808</v>
       </c>
       <c r="L12">
-        <v>0.0669077991242748</v>
+        <v>0.1398234635866018</v>
       </c>
       <c r="M12">
-        <v>1.384419692194996</v>
+        <v>0.1191710322715771</v>
       </c>
       <c r="N12">
-        <v>0.221243073107928</v>
+        <v>0.06179897825907066</v>
       </c>
       <c r="O12">
-        <v>0.3228793675670758</v>
+        <v>1.414379563637539</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2382372614066668</v>
       </c>
       <c r="Q12">
-        <v>1.60293028583223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3257195914449866</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.397071701117326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.515467891832714</v>
+        <v>1.493576383366275</v>
       </c>
       <c r="C13">
-        <v>0.179045823788428</v>
+        <v>0.1790450852168988</v>
       </c>
       <c r="D13">
-        <v>0.1444007242049707</v>
+        <v>0.1516106349602353</v>
       </c>
       <c r="E13">
-        <v>0.06269634335502516</v>
+        <v>0.05979885475794156</v>
       </c>
       <c r="F13">
-        <v>0.6982452437562756</v>
+        <v>0.6239917662371397</v>
       </c>
       <c r="G13">
-        <v>0.4233596112505253</v>
+        <v>0.4236955057854743</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.004594581952505727</v>
+        <v>0.003880544152814025</v>
       </c>
       <c r="J13">
-        <v>0.3624500223001377</v>
+        <v>0.2928464397029984</v>
       </c>
       <c r="K13">
-        <v>0.3960153226364724</v>
+        <v>0.3402163478007907</v>
       </c>
       <c r="L13">
-        <v>0.06700159987608156</v>
+        <v>0.1402883811258757</v>
       </c>
       <c r="M13">
-        <v>1.37713476168463</v>
+        <v>0.119338863844078</v>
       </c>
       <c r="N13">
-        <v>0.2202788201930161</v>
+        <v>0.06189449923962576</v>
       </c>
       <c r="O13">
-        <v>0.3211972593263539</v>
+        <v>1.407129097713096</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2371920173163886</v>
       </c>
       <c r="Q13">
-        <v>1.603412863026392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3239995072372253</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.400609418786814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.489029554294035</v>
+        <v>1.467455111607734</v>
       </c>
       <c r="C14">
-        <v>0.1777478429021784</v>
+        <v>0.1775987557818866</v>
       </c>
       <c r="D14">
-        <v>0.1424462144752141</v>
+        <v>0.1489311710792265</v>
       </c>
       <c r="E14">
-        <v>0.06250283826910064</v>
+        <v>0.05955603176340496</v>
       </c>
       <c r="F14">
-        <v>0.6962188788605772</v>
+        <v>0.6256002261738729</v>
       </c>
       <c r="G14">
-        <v>0.4225240037677835</v>
+        <v>0.4137347096488142</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.004897077200822331</v>
+        <v>0.00410634691041345</v>
       </c>
       <c r="J14">
-        <v>0.3629841637025635</v>
+        <v>0.3021237367533374</v>
       </c>
       <c r="K14">
-        <v>0.3970387984931065</v>
+        <v>0.3428939935544371</v>
       </c>
       <c r="L14">
-        <v>0.06727287313065844</v>
+        <v>0.1416211531193454</v>
       </c>
       <c r="M14">
-        <v>1.354054723871087</v>
+        <v>0.1196409252701223</v>
       </c>
       <c r="N14">
-        <v>0.2174316419679769</v>
+        <v>0.06217867033070945</v>
       </c>
       <c r="O14">
-        <v>0.315754059473349</v>
+        <v>1.384120689168242</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2340863813838183</v>
       </c>
       <c r="Q14">
-        <v>1.602703879795072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3184351094846392</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.409703204195836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.472489081008348</v>
+        <v>1.451133576554241</v>
       </c>
       <c r="C15">
-        <v>0.1771630873764281</v>
+        <v>0.1769405196122733</v>
       </c>
       <c r="D15">
-        <v>0.141280420300248</v>
+        <v>0.147349700177557</v>
       </c>
       <c r="E15">
-        <v>0.06236289258433025</v>
+        <v>0.05939019626669051</v>
       </c>
       <c r="F15">
-        <v>0.6945400635995611</v>
+        <v>0.6260629713566814</v>
       </c>
       <c r="G15">
-        <v>0.4216496783963066</v>
+        <v>0.4077466609776366</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.005191054837027309</v>
+        <v>0.00437034281560944</v>
       </c>
       <c r="J15">
-        <v>0.363125357208979</v>
+        <v>0.3076153840031495</v>
       </c>
       <c r="K15">
-        <v>0.3973518741894395</v>
+        <v>0.3442139540783629</v>
       </c>
       <c r="L15">
-        <v>0.06742141549496949</v>
+        <v>0.1423363421626131</v>
       </c>
       <c r="M15">
-        <v>1.340266545205424</v>
+        <v>0.1196959082742453</v>
       </c>
       <c r="N15">
-        <v>0.2158421187672843</v>
+        <v>0.06233837090163341</v>
       </c>
       <c r="O15">
-        <v>0.3124423812356909</v>
+        <v>1.370344815702651</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2323412567485121</v>
       </c>
       <c r="Q15">
-        <v>1.601111480270973</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3150512723770547</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.413911247227162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.379904346851959</v>
+        <v>1.360027645377073</v>
       </c>
       <c r="C16">
-        <v>0.1725049672623697</v>
+        <v>0.1713409975578628</v>
       </c>
       <c r="D16">
-        <v>0.1344422592377441</v>
+        <v>0.1385370176831628</v>
       </c>
       <c r="E16">
-        <v>0.06171696216520139</v>
+        <v>0.05863948804154973</v>
       </c>
       <c r="F16">
-        <v>0.6880928900753887</v>
+        <v>0.6298380764441731</v>
       </c>
       <c r="G16">
-        <v>0.4192414685503749</v>
+        <v>0.3826800780468744</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.006347833778906242</v>
+        <v>0.005224361522759402</v>
       </c>
       <c r="J16">
-        <v>0.3652943190248408</v>
+        <v>0.3373312045293062</v>
       </c>
       <c r="K16">
-        <v>0.4013430627350161</v>
+        <v>0.352838014383849</v>
       </c>
       <c r="L16">
-        <v>0.06840015930370669</v>
+        <v>0.1468651921359072</v>
       </c>
       <c r="M16">
-        <v>1.259118064711714</v>
+        <v>0.1205309998098745</v>
       </c>
       <c r="N16">
-        <v>0.2058581854403911</v>
+        <v>0.06333753104081064</v>
       </c>
       <c r="O16">
-        <v>0.2933575773738397</v>
+        <v>1.288766972679042</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.221437424568407</v>
       </c>
       <c r="Q16">
-        <v>1.600348228690436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2955875101523802</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.44060455959368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.32310652365905</v>
+        <v>1.304359843997503</v>
       </c>
       <c r="C17">
-        <v>0.1696617357128929</v>
+        <v>0.1676642204180041</v>
       </c>
       <c r="D17">
-        <v>0.1302724790238727</v>
+        <v>0.1335003235381436</v>
       </c>
       <c r="E17">
-        <v>0.06133341886983601</v>
+        <v>0.05823231895900527</v>
       </c>
       <c r="F17">
-        <v>0.6843858224925228</v>
+        <v>0.6308339522339423</v>
       </c>
       <c r="G17">
-        <v>0.4179526933791422</v>
+        <v>0.3727052454663493</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.007151754514973518</v>
+        <v>0.005830453831171312</v>
       </c>
       <c r="J17">
-        <v>0.3667380076803113</v>
+        <v>0.3517851600737174</v>
       </c>
       <c r="K17">
-        <v>0.403921873277632</v>
+        <v>0.3575352489280661</v>
       </c>
       <c r="L17">
-        <v>0.06901070137719589</v>
+        <v>0.1494940441952348</v>
       </c>
       <c r="M17">
-        <v>1.209377534873596</v>
+        <v>0.1208815521986892</v>
       </c>
       <c r="N17">
-        <v>0.1997960820435623</v>
+        <v>0.06394550496458296</v>
       </c>
       <c r="O17">
-        <v>0.2816701128625922</v>
+        <v>1.238339269200623</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2148063957307329</v>
       </c>
       <c r="Q17">
-        <v>1.600514575953483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2836963458711352</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.453286809496163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.291312293032291</v>
+        <v>1.273276549101695</v>
       </c>
       <c r="C18">
-        <v>0.1675023345178985</v>
+        <v>0.1648383950752788</v>
       </c>
       <c r="D18">
-        <v>0.1278080307645126</v>
+        <v>0.1306555544435781</v>
       </c>
       <c r="E18">
-        <v>0.06117447984357405</v>
+        <v>0.05807100087219119</v>
       </c>
       <c r="F18">
-        <v>0.68350817966774</v>
+        <v>0.6320379581501143</v>
       </c>
       <c r="G18">
-        <v>0.4182415712894354</v>
+        <v>0.3696130664104729</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007361975731682513</v>
+        <v>0.005873727041922017</v>
       </c>
       <c r="J18">
-        <v>0.3681074629993972</v>
+        <v>0.3587326127685984</v>
       </c>
       <c r="K18">
-        <v>0.4062807017181598</v>
+        <v>0.3607566425930031</v>
       </c>
       <c r="L18">
-        <v>0.06941323204664318</v>
+        <v>0.1512140333625336</v>
       </c>
       <c r="M18">
-        <v>1.179906681165306</v>
+        <v>0.1213161067558648</v>
       </c>
       <c r="N18">
-        <v>0.1959507724945624</v>
+        <v>0.06433099939594689</v>
       </c>
       <c r="O18">
-        <v>0.2749014392408142</v>
+        <v>1.208320659483888</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2106249877961517</v>
       </c>
       <c r="Q18">
-        <v>1.603922448925744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2768212283858134</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.462120054141408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.279870920511513</v>
+        <v>1.262100618671013</v>
       </c>
       <c r="C19">
-        <v>0.1671796155689904</v>
+        <v>0.1643482430120713</v>
       </c>
       <c r="D19">
-        <v>0.1270330396548047</v>
+        <v>0.1297715082361464</v>
       </c>
       <c r="E19">
-        <v>0.06107744308075347</v>
+        <v>0.05797735775027135</v>
       </c>
       <c r="F19">
-        <v>0.6823271022083617</v>
+        <v>0.6315223038281275</v>
       </c>
       <c r="G19">
-        <v>0.4176082006388953</v>
+        <v>0.3681564664173607</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007655915774639865</v>
+        <v>0.006148326902434498</v>
       </c>
       <c r="J19">
-        <v>0.3681937487404028</v>
+        <v>0.360388146401263</v>
       </c>
       <c r="K19">
-        <v>0.4064481031901401</v>
+        <v>0.3612468857085851</v>
       </c>
       <c r="L19">
-        <v>0.06951338210164693</v>
+        <v>0.1515783618910795</v>
       </c>
       <c r="M19">
-        <v>1.170604942623584</v>
+        <v>0.1212379223950109</v>
       </c>
       <c r="N19">
-        <v>0.1949463057016771</v>
+        <v>0.06443197241440002</v>
       </c>
       <c r="O19">
-        <v>0.2726519630119952</v>
+        <v>1.198811398184716</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2095127517628868</v>
       </c>
       <c r="Q19">
-        <v>1.602735661362345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2745370177087807</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.462690960299199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.329221744108366</v>
+        <v>1.31034548774835</v>
       </c>
       <c r="C20">
-        <v>0.1699222313631026</v>
+        <v>0.1680155092119406</v>
       </c>
       <c r="D20">
-        <v>0.1307095299173966</v>
+        <v>0.1340172052169066</v>
       </c>
       <c r="E20">
-        <v>0.06137824393920432</v>
+        <v>0.05827801538906741</v>
       </c>
       <c r="F20">
-        <v>0.684862546369871</v>
+        <v>0.6308622603587537</v>
       </c>
       <c r="G20">
-        <v>0.4181583006165113</v>
+        <v>0.3736521603910248</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.007040057250025988</v>
+        <v>0.005736215548630241</v>
       </c>
       <c r="J20">
-        <v>0.3666191131743517</v>
+        <v>0.3504631799668303</v>
       </c>
       <c r="K20">
-        <v>0.4037073454504387</v>
+        <v>0.3571143888756936</v>
       </c>
       <c r="L20">
-        <v>0.06894904346462383</v>
+        <v>0.1492409944568927</v>
       </c>
       <c r="M20">
-        <v>1.214602377816675</v>
+        <v>0.1208718747022974</v>
       </c>
       <c r="N20">
-        <v>0.2004091684823948</v>
+        <v>0.06388392696565459</v>
       </c>
       <c r="O20">
-        <v>0.2829093493264736</v>
+        <v>1.243652557078093</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2154795296947896</v>
       </c>
       <c r="Q20">
-        <v>1.600714847715651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2849562446587655</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.452296347002644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.495809217220398</v>
+        <v>1.474572955372963</v>
       </c>
       <c r="C21">
-        <v>0.1787240143118254</v>
+        <v>0.1782835397048785</v>
       </c>
       <c r="D21">
-        <v>0.1431035529024172</v>
+        <v>0.1503438778564004</v>
       </c>
       <c r="E21">
-        <v>0.06249597997402745</v>
+        <v>0.05963211081374276</v>
       </c>
       <c r="F21">
-        <v>0.6955148292938347</v>
+        <v>0.6214834551814903</v>
       </c>
       <c r="G21">
-        <v>0.421697121343982</v>
+        <v>0.4235898564049165</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.005096685503841236</v>
+        <v>0.00439046566991852</v>
       </c>
       <c r="J21">
-        <v>0.3622738205213452</v>
+        <v>0.2919713099100107</v>
       </c>
       <c r="K21">
-        <v>0.3958183699027735</v>
+        <v>0.3401959763425566</v>
       </c>
       <c r="L21">
-        <v>0.06714108704249</v>
+        <v>0.1405958281792135</v>
       </c>
       <c r="M21">
-        <v>1.361814253061397</v>
+        <v>0.118744551763065</v>
       </c>
       <c r="N21">
-        <v>0.2186919502718752</v>
+        <v>0.06203113069829591</v>
       </c>
       <c r="O21">
-        <v>0.3174113909090295</v>
+        <v>1.391185698913176</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2354114367335143</v>
       </c>
       <c r="Q21">
-        <v>1.599479786895202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3201818647791583</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.397166927046328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605957035780762</v>
+        <v>1.583266702077168</v>
       </c>
       <c r="C22">
-        <v>0.1837722178607493</v>
+        <v>0.1840406714748895</v>
       </c>
       <c r="D22">
-        <v>0.1511834865071364</v>
+        <v>0.1613212375311122</v>
       </c>
       <c r="E22">
-        <v>0.06334954185551744</v>
+        <v>0.06067625567953527</v>
       </c>
       <c r="F22">
-        <v>0.7049600999287975</v>
+        <v>0.6164365967295709</v>
       </c>
       <c r="G22">
-        <v>0.4260077287944455</v>
+        <v>0.4654954787644243</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003771890103813291</v>
+        <v>0.003321134324806074</v>
       </c>
       <c r="J22">
-        <v>0.3605142270117412</v>
+        <v>0.2619347152189064</v>
       </c>
       <c r="K22">
-        <v>0.3922655936599497</v>
+        <v>0.3300371937832516</v>
       </c>
       <c r="L22">
-        <v>0.06605879616744748</v>
+        <v>0.1354978573445305</v>
       </c>
       <c r="M22">
-        <v>1.456942613236635</v>
+        <v>0.1179226116841825</v>
       </c>
       <c r="N22">
-        <v>0.2303150110948451</v>
+        <v>0.06089847936576387</v>
       </c>
       <c r="O22">
-        <v>0.339959278502171</v>
+        <v>1.486196342549704</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2481104111807326</v>
       </c>
       <c r="Q22">
-        <v>1.605163557578635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3432125321590433</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.363921743026594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.548355308459833</v>
+        <v>1.526116604747671</v>
       </c>
       <c r="C23">
-        <v>0.1803562844899318</v>
+        <v>0.180438371332869</v>
       </c>
       <c r="D23">
-        <v>0.1467621192840909</v>
+        <v>0.1549377826517429</v>
       </c>
       <c r="E23">
-        <v>0.06296656503591258</v>
+        <v>0.0601379526900665</v>
       </c>
       <c r="F23">
-        <v>0.7014013311715956</v>
+        <v>0.6223042564077588</v>
       </c>
       <c r="G23">
-        <v>0.4249357334288248</v>
+        <v>0.4378519020048657</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.004117665035411555</v>
+        <v>0.003471390110482808</v>
       </c>
       <c r="J23">
-        <v>0.3620824761854848</v>
+        <v>0.2816484433107931</v>
       </c>
       <c r="K23">
-        <v>0.3952272787906672</v>
+        <v>0.3371789254430517</v>
       </c>
       <c r="L23">
-        <v>0.06669591094627503</v>
+        <v>0.1387509485996556</v>
       </c>
       <c r="M23">
-        <v>1.404970253098128</v>
+        <v>0.1190836711700634</v>
       </c>
       <c r="N23">
-        <v>0.2235791670328382</v>
+        <v>0.061564227115944</v>
       </c>
       <c r="O23">
-        <v>0.3278468993202281</v>
+        <v>1.434785601157813</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2408029198722517</v>
       </c>
       <c r="Q23">
-        <v>1.606052884832593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3308041432862581</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.390138575768674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.328314390128298</v>
+        <v>1.309463014961267</v>
       </c>
       <c r="C24">
-        <v>0.168688188000651</v>
+        <v>0.1665385018470573</v>
       </c>
       <c r="D24">
-        <v>0.130353101912533</v>
+        <v>0.1336238453522753</v>
       </c>
       <c r="E24">
-        <v>0.06147870583388482</v>
+        <v>0.05837273729619241</v>
       </c>
       <c r="F24">
-        <v>0.6871135982967758</v>
+        <v>0.6331646552778238</v>
       </c>
       <c r="G24">
-        <v>0.42010324890569</v>
+        <v>0.3751332755704908</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006526836137966008</v>
+        <v>0.005117634783512237</v>
       </c>
       <c r="J24">
-        <v>0.3677268794676678</v>
+        <v>0.352011434073674</v>
       </c>
       <c r="K24">
-        <v>0.405558918171856</v>
+        <v>0.3588481546276263</v>
       </c>
       <c r="L24">
-        <v>0.06907772866082507</v>
+        <v>0.1499131045130131</v>
       </c>
       <c r="M24">
-        <v>1.21038856060224</v>
+        <v>0.1214801488816271</v>
       </c>
       <c r="N24">
-        <v>0.1993265837688938</v>
+        <v>0.06399142764765964</v>
       </c>
       <c r="O24">
-        <v>0.2822364257771781</v>
+        <v>1.239391538704837</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2143528075304033</v>
       </c>
       <c r="Q24">
-        <v>1.607152156311187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2842750463538977</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.458759894645425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090942394235725</v>
+        <v>1.078585664586001</v>
       </c>
       <c r="C25">
-        <v>0.1562436306615851</v>
+        <v>0.1483459720575695</v>
       </c>
       <c r="D25">
-        <v>0.1129864259520019</v>
+        <v>0.1153634406844759</v>
       </c>
       <c r="E25">
-        <v>0.0600551655024244</v>
+        <v>0.05716065212500787</v>
       </c>
       <c r="F25">
-        <v>0.6752068115158423</v>
+        <v>0.6278169764891004</v>
       </c>
       <c r="G25">
-        <v>0.4175540221960148</v>
+        <v>0.3735702073802187</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01028091060773928</v>
+        <v>0.007907864989639357</v>
       </c>
       <c r="J25">
-        <v>0.3754251779941953</v>
+        <v>0.3636597328187108</v>
       </c>
       <c r="K25">
-        <v>0.4185847346553082</v>
+        <v>0.3744473988029284</v>
       </c>
       <c r="L25">
-        <v>0.0717956066193759</v>
+        <v>0.1597181620337462</v>
       </c>
       <c r="M25">
-        <v>1.000908263624041</v>
+        <v>0.1223545101674635</v>
       </c>
       <c r="N25">
-        <v>0.1739759487509644</v>
+        <v>0.06654297659983355</v>
       </c>
       <c r="O25">
-        <v>0.2332929233477152</v>
+        <v>1.023549821819273</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1866063605178354</v>
       </c>
       <c r="Q25">
-        <v>1.617326637686205</v>
+        <v>0.2347213694478647</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.484593665006059</v>
       </c>
     </row>
   </sheetData>
